--- a/data/strategies/长江场内策略结果.xlsx
+++ b/data/strategies/长江场内策略结果.xlsx
@@ -18,23 +18,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="195">
+  <si>
+    <t>富国中证细分机械设备产业ETF</t>
+  </si>
+  <si>
+    <t>招商上证消费80ETF</t>
+  </si>
+  <si>
+    <t>国泰中证军工ETF</t>
+  </si>
+  <si>
+    <t>鹏华中证酒ETF</t>
+  </si>
   <si>
     <t>平安中证新能源汽车产业ETF</t>
   </si>
   <si>
-    <t>富国中证细分机械设备产业ETF</t>
-  </si>
-  <si>
-    <t>鹏华中证酒ETF</t>
-  </si>
-  <si>
-    <t>招商上证消费80ETF</t>
-  </si>
-  <si>
-    <t>国泰中证军工ETF</t>
-  </si>
-  <si>
     <t>围绕供需的四条配置主线</t>
   </si>
   <si>
@@ -65,73 +65,70 @@
     <t>年化波动率-2020/12/31至今</t>
   </si>
   <si>
-    <t>5.54%</t>
-  </si>
-  <si>
-    <t>2.14%</t>
-  </si>
-  <si>
-    <t>-1.62%</t>
-  </si>
-  <si>
-    <t>24.61%</t>
-  </si>
-  <si>
-    <t>11.17%</t>
-  </si>
-  <si>
-    <t>6.55%</t>
-  </si>
-  <si>
-    <t>7.31%</t>
-  </si>
-  <si>
-    <t>7.25%</t>
-  </si>
-  <si>
-    <t>0.78%</t>
-  </si>
-  <si>
-    <t>21.26%</t>
-  </si>
-  <si>
-    <t>10.97%</t>
-  </si>
-  <si>
-    <t>11.64%</t>
-  </si>
-  <si>
-    <t>22.13%</t>
-  </si>
-  <si>
-    <t>10.61%</t>
-  </si>
-  <si>
-    <t>15.64%</t>
-  </si>
-  <si>
-    <t>30.87%</t>
-  </si>
-  <si>
-    <t>15.72%</t>
-  </si>
-  <si>
-    <t>20.87%</t>
+    <t>6.71%</t>
+  </si>
+  <si>
+    <t>1.67%</t>
+  </si>
+  <si>
+    <t>-3.19%</t>
+  </si>
+  <si>
+    <t>20.38%</t>
+  </si>
+  <si>
+    <t>7.19%</t>
+  </si>
+  <si>
+    <t>-0.67%</t>
+  </si>
+  <si>
+    <t>9.96%</t>
+  </si>
+  <si>
+    <t>6.87%</t>
+  </si>
+  <si>
+    <t>-2.72%</t>
+  </si>
+  <si>
+    <t>23.85%</t>
+  </si>
+  <si>
+    <t>12.78%</t>
+  </si>
+  <si>
+    <t>15.76%</t>
+  </si>
+  <si>
+    <t>22.03%</t>
+  </si>
+  <si>
+    <t>11.19%</t>
+  </si>
+  <si>
+    <t>16.01%</t>
+  </si>
+  <si>
+    <t>30.53%</t>
+  </si>
+  <si>
+    <t>15.54%</t>
+  </si>
+  <si>
+    <t>20.71%</t>
   </si>
   <si>
     <t>场内权重</t>
   </si>
   <si>
-    <t>市盈率PE_TTM</t>
-  </si>
-  <si>
-    <t>市净率PB</t>
-  </si>
-  <si>
-    <t>营业收入同比增长率（%）</t>
-  </si>
-  <si>
-    <t>归母净利润同比增长率（%）</t>
+    <t>PB(LY)</t>
+  </si>
+  <si>
+    <t>PE(TTM)</t>
+  </si>
+  <si>
+    <t>归母净利润同比增长率</t>
   </si>
   <si>
     <t>场内基金</t>
@@ -140,106 +137,109 @@
     <t>场内代码</t>
   </si>
   <si>
+    <t>159886.OF</t>
+  </si>
+  <si>
+    <t>510150.OF</t>
+  </si>
+  <si>
+    <t>512660.OF</t>
+  </si>
+  <si>
+    <t>512690.OF</t>
+  </si>
+  <si>
     <t>515700.OF</t>
   </si>
   <si>
-    <t>159886.OF</t>
-  </si>
-  <si>
-    <t>512690.OF</t>
-  </si>
-  <si>
-    <t>510150.OF</t>
-  </si>
-  <si>
-    <t>512660.OF</t>
-  </si>
-  <si>
-    <t>17.16%</t>
-  </si>
-  <si>
-    <t>-3.91%</t>
-  </si>
-  <si>
-    <t>-1.60%</t>
-  </si>
-  <si>
-    <t>4.76%</t>
-  </si>
-  <si>
-    <t>47.36%</t>
-  </si>
-  <si>
-    <t>24.48%</t>
-  </si>
-  <si>
-    <t>23.84%</t>
-  </si>
-  <si>
-    <t>14.73%</t>
-  </si>
-  <si>
-    <t>12.76%</t>
-  </si>
-  <si>
-    <t>23.56%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>5.65%</t>
-  </si>
-  <si>
-    <t>2.70%</t>
-  </si>
-  <si>
-    <t>-10.02%</t>
-  </si>
-  <si>
-    <t>41.84%</t>
-  </si>
-  <si>
-    <t>28.79%</t>
-  </si>
-  <si>
-    <t>32.39%</t>
-  </si>
-  <si>
-    <t>14.81%</t>
-  </si>
-  <si>
-    <t>26.92%</t>
-  </si>
-  <si>
-    <t>37.04%</t>
-  </si>
-  <si>
-    <t>27.94%</t>
-  </si>
-  <si>
-    <t>31.39%</t>
-  </si>
-  <si>
-    <t>20.18%</t>
-  </si>
-  <si>
-    <t>26.07%</t>
-  </si>
-  <si>
-    <t>42.46%</t>
-  </si>
-  <si>
-    <t>36.90%</t>
-  </si>
-  <si>
-    <t>40.03%</t>
-  </si>
-  <si>
-    <t>27.31%</t>
-  </si>
-  <si>
-    <t>34.49%</t>
+    <t>16.87%</t>
+  </si>
+  <si>
+    <t>-4.54%</t>
+  </si>
+  <si>
+    <t>-0.31%</t>
+  </si>
+  <si>
+    <t>-8.51%</t>
+  </si>
+  <si>
+    <t>27.72%</t>
+  </si>
+  <si>
+    <t>22.83%</t>
+  </si>
+  <si>
+    <t>2.21%</t>
+  </si>
+  <si>
+    <t>7.93%</t>
+  </si>
+  <si>
+    <t>10.23%</t>
+  </si>
+  <si>
+    <t>57.99%</t>
+  </si>
+  <si>
+    <t>20.60%</t>
+  </si>
+  <si>
+    <t>-2.76%</t>
+  </si>
+  <si>
+    <t>-10.93%</t>
+  </si>
+  <si>
+    <t>-1.12%</t>
+  </si>
+  <si>
+    <t>43.99%</t>
+  </si>
+  <si>
+    <t>30.38%</t>
+  </si>
+  <si>
+    <t>21.00%</t>
+  </si>
+  <si>
+    <t>34.61%</t>
+  </si>
+  <si>
+    <t>29.15%</t>
+  </si>
+  <si>
+    <t>39.73%</t>
+  </si>
+  <si>
+    <t>28.32%</t>
+  </si>
+  <si>
+    <t>20.57%</t>
+  </si>
+  <si>
+    <t>28.59%</t>
+  </si>
+  <si>
+    <t>30.16%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>36.55%</t>
+  </si>
+  <si>
+    <t>27.28%</t>
+  </si>
+  <si>
+    <t>35.05%</t>
+  </si>
+  <si>
+    <t>39.57%</t>
+  </si>
+  <si>
+    <t>42.17%</t>
   </si>
   <si>
     <t>股票代码</t>
@@ -254,7 +254,7 @@
     <t>财报主营构成</t>
   </si>
   <si>
-    <t>区间涨跌幅</t>
+    <t>区间收益率</t>
   </si>
   <si>
     <t>300750.SZ</t>
@@ -263,12 +263,15 @@
     <t>600519.SH</t>
   </si>
   <si>
+    <t>601012.SH</t>
+  </si>
+  <si>
+    <t>002594.SZ</t>
+  </si>
+  <si>
     <t>300014.SZ</t>
   </si>
   <si>
-    <t>601012.SH</t>
-  </si>
-  <si>
     <t>600809.SH</t>
   </si>
   <si>
@@ -284,88 +287,94 @@
     <t>000858.SZ</t>
   </si>
   <si>
+    <t>600276.SH</t>
+  </si>
+  <si>
     <t>601888.SH</t>
   </si>
   <si>
+    <t>000860.SZ</t>
+  </si>
+  <si>
+    <t>603259.SH</t>
+  </si>
+  <si>
     <t>600893.SH</t>
   </si>
   <si>
-    <t>600276.SH</t>
-  </si>
-  <si>
-    <t>000860.SZ</t>
-  </si>
-  <si>
-    <t>002460.SZ</t>
+    <t>002812.SZ</t>
+  </si>
+  <si>
+    <t>601989.SH</t>
+  </si>
+  <si>
+    <t>603589.SH</t>
   </si>
   <si>
     <t>600031.SH</t>
   </si>
   <si>
-    <t>601989.SH</t>
-  </si>
-  <si>
-    <t>300450.SZ</t>
-  </si>
-  <si>
-    <t>600887.SH</t>
-  </si>
-  <si>
-    <t>603589.SH</t>
-  </si>
-  <si>
-    <t>002179.SZ</t>
-  </si>
-  <si>
-    <t>5.90%</t>
-  </si>
-  <si>
-    <t>4.09%</t>
-  </si>
-  <si>
-    <t>2.90%</t>
-  </si>
-  <si>
-    <t>2.26%</t>
-  </si>
-  <si>
-    <t>2.21%</t>
-  </si>
-  <si>
-    <t>2.18%</t>
-  </si>
-  <si>
-    <t>2.04%</t>
-  </si>
-  <si>
-    <t>1.97%</t>
-  </si>
-  <si>
-    <t>1.81%</t>
-  </si>
-  <si>
-    <t>1.68%</t>
-  </si>
-  <si>
-    <t>1.66%</t>
-  </si>
-  <si>
-    <t>1.53%</t>
-  </si>
-  <si>
-    <t>1.50%</t>
-  </si>
-  <si>
-    <t>1.42%</t>
-  </si>
-  <si>
-    <t>1.39%</t>
-  </si>
-  <si>
-    <t>1.36%</t>
-  </si>
-  <si>
-    <t>1.24%</t>
+    <t>600600.SH</t>
+  </si>
+  <si>
+    <t>570.76%</t>
+  </si>
+  <si>
+    <t>379.76%</t>
+  </si>
+  <si>
+    <t>276.08%</t>
+  </si>
+  <si>
+    <t>228.84%</t>
+  </si>
+  <si>
+    <t>219.88%</t>
+  </si>
+  <si>
+    <t>216.22%</t>
+  </si>
+  <si>
+    <t>214.62%</t>
+  </si>
+  <si>
+    <t>213.88%</t>
+  </si>
+  <si>
+    <t>203.60%</t>
+  </si>
+  <si>
+    <t>197.18%</t>
+  </si>
+  <si>
+    <t>165.14%</t>
+  </si>
+  <si>
+    <t>158.96%</t>
+  </si>
+  <si>
+    <t>153.34%</t>
+  </si>
+  <si>
+    <t>152.36%</t>
+  </si>
+  <si>
+    <t>149.48%</t>
+  </si>
+  <si>
+    <t>143.42%</t>
+  </si>
+  <si>
+    <t>126.00%</t>
+  </si>
+  <si>
+    <t>124.04%</t>
+  </si>
+  <si>
+    <t>123.90%</t>
+  </si>
+  <si>
+    <t>121.74%</t>
   </si>
   <si>
     <t>宁德时代</t>
@@ -374,12 +383,15 @@
     <t>贵州茅台</t>
   </si>
   <si>
+    <t>隆基股份</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
     <t>亿纬锂能</t>
   </si>
   <si>
-    <t>隆基股份</t>
-  </si>
-  <si>
     <t>山西汾酒</t>
   </si>
   <si>
@@ -395,37 +407,34 @@
     <t>五粮液</t>
   </si>
   <si>
+    <t>恒瑞医药</t>
+  </si>
+  <si>
     <t>中国中免</t>
   </si>
   <si>
+    <t>顺鑫农业</t>
+  </si>
+  <si>
+    <t>药明康德</t>
+  </si>
+  <si>
     <t>航发动力</t>
   </si>
   <si>
-    <t>恒瑞医药</t>
-  </si>
-  <si>
-    <t>顺鑫农业</t>
-  </si>
-  <si>
-    <t>赣锋锂业</t>
+    <t>恩捷股份</t>
+  </si>
+  <si>
+    <t>中国重工</t>
+  </si>
+  <si>
+    <t>口子窖</t>
   </si>
   <si>
     <t>三一重工</t>
   </si>
   <si>
-    <t>中国重工</t>
-  </si>
-  <si>
-    <t>先导智能</t>
-  </si>
-  <si>
-    <t>伊利股份</t>
-  </si>
-  <si>
-    <t>口子窖</t>
-  </si>
-  <si>
-    <t>中航光电</t>
+    <t>青岛啤酒</t>
   </si>
   <si>
     <t>动力电池系统</t>
@@ -434,12 +443,15 @@
     <t>茅台酒</t>
   </si>
   <si>
+    <t>太阳能组件</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
     <t>锂离子电池</t>
   </si>
   <si>
-    <t>太阳能组件</t>
-  </si>
-  <si>
     <t>白酒</t>
   </si>
   <si>
@@ -452,94 +464,91 @@
     <t>酒类</t>
   </si>
   <si>
+    <t>抗肿瘤</t>
+  </si>
+  <si>
     <t>商品贸易-免税商品</t>
   </si>
   <si>
+    <t>中国区实验室服务</t>
+  </si>
+  <si>
     <t>航空发动机制造及衍生产品</t>
   </si>
   <si>
-    <t>抗肿瘤</t>
-  </si>
-  <si>
-    <t>锂系列产品</t>
+    <t>膜类产品</t>
+  </si>
+  <si>
+    <t>海洋运输装备</t>
+  </si>
+  <si>
+    <t>高档白酒</t>
   </si>
   <si>
     <t>挖掘机械</t>
   </si>
   <si>
-    <t>海洋运输装备</t>
-  </si>
-  <si>
-    <t>锂电池设备</t>
-  </si>
-  <si>
-    <t>液体乳</t>
-  </si>
-  <si>
-    <t>高档白酒</t>
-  </si>
-  <si>
-    <t>电连接器</t>
-  </si>
-  <si>
-    <t>45.26%</t>
-  </si>
-  <si>
-    <t>9.82%</t>
-  </si>
-  <si>
-    <t>34.17%</t>
-  </si>
-  <si>
-    <t>32.52%</t>
-  </si>
-  <si>
-    <t>22.60%</t>
-  </si>
-  <si>
-    <t>17.94%</t>
-  </si>
-  <si>
-    <t>-6.90%</t>
-  </si>
-  <si>
-    <t>4.71%</t>
-  </si>
-  <si>
-    <t>6.77%</t>
-  </si>
-  <si>
-    <t>17.41%</t>
-  </si>
-  <si>
-    <t>-1.15%</t>
-  </si>
-  <si>
-    <t>-26.78%</t>
-  </si>
-  <si>
-    <t>-39.72%</t>
-  </si>
-  <si>
-    <t>21.15%</t>
-  </si>
-  <si>
-    <t>-14.61%</t>
+    <t>啤酒</t>
+  </si>
+  <si>
+    <t>66.49%</t>
+  </si>
+  <si>
+    <t>2.40%</t>
+  </si>
+  <si>
+    <t>41.29%</t>
+  </si>
+  <si>
+    <t>43.27%</t>
+  </si>
+  <si>
+    <t>62.80%</t>
+  </si>
+  <si>
+    <t>19.71%</t>
+  </si>
+  <si>
+    <t>38.18%</t>
+  </si>
+  <si>
+    <t>-15.98%</t>
+  </si>
+  <si>
+    <t>-0.49%</t>
+  </si>
+  <si>
+    <t>-4.64%</t>
+  </si>
+  <si>
+    <t>-32.63%</t>
+  </si>
+  <si>
+    <t>8.97%</t>
+  </si>
+  <si>
+    <t>-47.82%</t>
+  </si>
+  <si>
+    <t>47.28%</t>
+  </si>
+  <si>
+    <t>-4.93%</t>
+  </si>
+  <si>
+    <t>92.74%</t>
   </si>
   <si>
     <t>0.25%</t>
   </si>
   <si>
-    <t>11.23%</t>
-  </si>
-  <si>
-    <t>-13.35%</t>
-  </si>
-  <si>
-    <t>6.19%</t>
-  </si>
-  <si>
-    <t>6.67%</t>
+    <t>0.92%</t>
+  </si>
+  <si>
+    <t>-23.86%</t>
+  </si>
+  <si>
+    <t>-2.33%</t>
   </si>
   <si>
     <t>一级标签</t>
@@ -554,10 +563,13 @@
     <t>锂电池</t>
   </si>
   <si>
-    <t>太阳能光伏</t>
-  </si>
-  <si>
-    <t>军工</t>
+    <t>光伏太阳能</t>
+  </si>
+  <si>
+    <t>医药生物</t>
+  </si>
+  <si>
+    <t>国防军工</t>
   </si>
   <si>
     <t xml:space="preserve">锂电池 </t>
@@ -566,34 +578,31 @@
     <t>商业贸易</t>
   </si>
   <si>
-    <t>医药生物</t>
-  </si>
-  <si>
     <t>机械设备</t>
   </si>
   <si>
-    <t>39.43%</t>
-  </si>
-  <si>
-    <t>20.98%</t>
-  </si>
-  <si>
-    <t>10.56%</t>
-  </si>
-  <si>
-    <t>10.32%</t>
-  </si>
-  <si>
-    <t>6.90%</t>
-  </si>
-  <si>
-    <t>4.30%</t>
-  </si>
-  <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
+    <t>16.19%</t>
+  </si>
+  <si>
+    <t>7.18%</t>
+  </si>
+  <si>
+    <t>4.94%</t>
+  </si>
+  <si>
+    <t>3.19%</t>
+  </si>
+  <si>
+    <t>2.77%</t>
+  </si>
+  <si>
+    <t>2.30%</t>
+  </si>
+  <si>
+    <t>1.60%</t>
+  </si>
+  <si>
+    <t>1.25%</t>
   </si>
 </sst>
 </file>
@@ -957,7 +966,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1026,22 +1035,22 @@
         <v>44200</v>
       </c>
       <c r="B3">
+        <v>1.064836999224328</v>
+      </c>
+      <c r="C3">
+        <v>1.015086206896552</v>
+      </c>
+      <c r="D3">
+        <v>1.066006857855362</v>
+      </c>
+      <c r="E3">
+        <v>1.035618479880775</v>
+      </c>
+      <c r="F3">
         <v>1.07818653347421</v>
       </c>
-      <c r="C3">
-        <v>1.064836999224328</v>
-      </c>
-      <c r="D3">
-        <v>1.035618479880775</v>
-      </c>
-      <c r="E3">
-        <v>1.015076030412165</v>
-      </c>
-      <c r="F3">
-        <v>1.066006857855362</v>
-      </c>
       <c r="G3">
-        <v>1.051944980169368</v>
+        <v>1.051947015466245</v>
       </c>
       <c r="H3">
         <v>1.018168368380631</v>
@@ -1055,22 +1064,22 @@
         <v>44201</v>
       </c>
       <c r="B4">
+        <v>1.079573026780003</v>
+      </c>
+      <c r="C4">
+        <v>1.041221466731423</v>
+      </c>
+      <c r="D4">
+        <v>1.075358478802993</v>
+      </c>
+      <c r="E4">
+        <v>1.088040238450074</v>
+      </c>
+      <c r="F4">
         <v>1.091441744308904</v>
       </c>
-      <c r="C4">
-        <v>1.079573026780003</v>
-      </c>
-      <c r="D4">
-        <v>1.088040238450074</v>
-      </c>
-      <c r="E4">
-        <v>1.041226490596239</v>
-      </c>
-      <c r="F4">
-        <v>1.075358478802993</v>
-      </c>
       <c r="G4">
-        <v>1.075127995787643</v>
+        <v>1.075126991014679</v>
       </c>
       <c r="H4">
         <v>1.027111201157197</v>
@@ -1084,22 +1093,22 @@
         <v>44202</v>
       </c>
       <c r="B5">
+        <v>1.086848968240705</v>
+      </c>
+      <c r="C5">
+        <v>1.048081593006314</v>
+      </c>
+      <c r="D5">
+        <v>1.09180174563591</v>
+      </c>
+      <c r="E5">
+        <v>1.090089418777943</v>
+      </c>
+      <c r="F5">
         <v>1.079195082124676</v>
       </c>
-      <c r="C5">
-        <v>1.086848968240705</v>
-      </c>
-      <c r="D5">
-        <v>1.090089418777943</v>
-      </c>
-      <c r="E5">
-        <v>1.048069227691076</v>
-      </c>
-      <c r="F5">
-        <v>1.09180174563591</v>
-      </c>
       <c r="G5">
-        <v>1.079200888494062</v>
+        <v>1.07920336155711</v>
       </c>
       <c r="H5">
         <v>1.025290909062353</v>
@@ -1113,22 +1122,22 @@
         <v>44203</v>
       </c>
       <c r="B6">
+        <v>1.132719877079329</v>
+      </c>
+      <c r="C6">
+        <v>1.068388780961632</v>
+      </c>
+      <c r="D6">
+        <v>1.118609725685786</v>
+      </c>
+      <c r="E6">
+        <v>1.101304023845007</v>
+      </c>
+      <c r="F6">
         <v>1.111756795696859</v>
       </c>
-      <c r="C6">
-        <v>1.132719877079329</v>
-      </c>
-      <c r="D6">
-        <v>1.101304023845007</v>
-      </c>
-      <c r="E6">
-        <v>1.068367346938775</v>
-      </c>
-      <c r="F6">
-        <v>1.118609725685786</v>
-      </c>
       <c r="G6">
-        <v>1.106551553849151</v>
+        <v>1.106555840653723</v>
       </c>
       <c r="H6">
         <v>1.026858339183711</v>
@@ -1142,22 +1151,22 @@
         <v>44204</v>
       </c>
       <c r="B7">
+        <v>1.118095518166899</v>
+      </c>
+      <c r="C7">
+        <v>1.055063137445362</v>
+      </c>
+      <c r="D7">
+        <v>1.088606608478803</v>
+      </c>
+      <c r="E7">
+        <v>1.069932935916542</v>
+      </c>
+      <c r="F7">
         <v>1.098261454231102</v>
       </c>
-      <c r="C7">
-        <v>1.118095518166899</v>
-      </c>
-      <c r="D7">
-        <v>1.069932935916542</v>
-      </c>
-      <c r="E7">
-        <v>1.055042016806723</v>
-      </c>
-      <c r="F7">
-        <v>1.088606608478803</v>
-      </c>
       <c r="G7">
-        <v>1.085987706720014</v>
+        <v>1.085991930847742</v>
       </c>
       <c r="H7">
         <v>1.029917812005761</v>
@@ -1171,22 +1180,22 @@
         <v>44207</v>
       </c>
       <c r="B8">
+        <v>1.089060901222685</v>
+      </c>
+      <c r="C8">
+        <v>1.048324429334628</v>
+      </c>
+      <c r="D8">
+        <v>1.052602867830424</v>
+      </c>
+      <c r="E8">
+        <v>1.034239940387481</v>
+      </c>
+      <c r="F8">
         <v>1.055998463163961</v>
       </c>
-      <c r="C8">
-        <v>1.089060901222685</v>
-      </c>
-      <c r="D8">
-        <v>1.034239940387481</v>
-      </c>
-      <c r="E8">
-        <v>1.048319327731092</v>
-      </c>
-      <c r="F8">
-        <v>1.052602867830424</v>
-      </c>
       <c r="G8">
-        <v>1.056044300067129</v>
+        <v>1.056045320387836</v>
       </c>
       <c r="H8">
         <v>1.013866573688848</v>
@@ -1200,22 +1209,22 @@
         <v>44208</v>
       </c>
       <c r="B9">
+        <v>1.132395423494981</v>
+      </c>
+      <c r="C9">
+        <v>1.075491743564837</v>
+      </c>
+      <c r="D9">
+        <v>1.094996882793018</v>
+      </c>
+      <c r="E9">
+        <v>1.066318926974665</v>
+      </c>
+      <c r="F9">
         <v>1.083181250600327</v>
       </c>
-      <c r="C9">
-        <v>1.132395423494981</v>
-      </c>
-      <c r="D9">
-        <v>1.066318926974665</v>
-      </c>
-      <c r="E9">
-        <v>1.07547018807523</v>
-      </c>
-      <c r="F9">
-        <v>1.094996882793018</v>
-      </c>
       <c r="G9">
-        <v>1.090472534387644</v>
+        <v>1.090476845485566</v>
       </c>
       <c r="H9">
         <v>1.027660901099557</v>
@@ -1229,22 +1238,22 @@
         <v>44209</v>
       </c>
       <c r="B10">
+        <v>1.118211904329259</v>
+      </c>
+      <c r="C10">
+        <v>1.059130645944633</v>
+      </c>
+      <c r="D10">
+        <v>1.079021197007481</v>
+      </c>
+      <c r="E10">
+        <v>1.053390461997019</v>
+      </c>
+      <c r="F10">
         <v>1.045961002785516</v>
       </c>
-      <c r="C10">
-        <v>1.118211904329259</v>
-      </c>
-      <c r="D10">
-        <v>1.053390461997019</v>
-      </c>
-      <c r="E10">
-        <v>1.059133653461384</v>
-      </c>
-      <c r="F10">
-        <v>1.079021197007481</v>
-      </c>
       <c r="G10">
-        <v>1.071143643916132</v>
+        <v>1.071143042412782</v>
       </c>
       <c r="H10">
         <v>1.020386015005238</v>
@@ -1258,22 +1267,22 @@
         <v>44210</v>
       </c>
       <c r="B11">
+        <v>1.085541383672937</v>
+      </c>
+      <c r="C11">
+        <v>1.034573822243808</v>
+      </c>
+      <c r="D11">
+        <v>1.017534289276808</v>
+      </c>
+      <c r="E11">
+        <v>1.016467958271237</v>
+      </c>
+      <c r="F11">
         <v>1.018345980213236</v>
       </c>
-      <c r="C11">
-        <v>1.085541383672937</v>
-      </c>
-      <c r="D11">
-        <v>1.016467958271237</v>
-      </c>
-      <c r="E11">
-        <v>1.034553821528611</v>
-      </c>
-      <c r="F11">
-        <v>1.017534289276808</v>
-      </c>
       <c r="G11">
-        <v>1.034488686592566</v>
+        <v>1.034492686735605</v>
       </c>
       <c r="H11">
         <v>1.011430617658561</v>
@@ -1287,22 +1296,22 @@
         <v>44211</v>
       </c>
       <c r="B12">
+        <v>1.087277505194144</v>
+      </c>
+      <c r="C12">
+        <v>1.022796260320544</v>
+      </c>
+      <c r="D12">
+        <v>1.009741271820449</v>
+      </c>
+      <c r="E12">
+        <v>0.9874068554396422</v>
+      </c>
+      <c r="F12">
         <v>1.040678128902123</v>
       </c>
-      <c r="C12">
-        <v>1.087277505194144</v>
-      </c>
-      <c r="D12">
-        <v>0.9874068554396422</v>
-      </c>
-      <c r="E12">
-        <v>1.022779111644658</v>
-      </c>
-      <c r="F12">
-        <v>1.009741271820449</v>
-      </c>
       <c r="G12">
-        <v>1.029576574600203</v>
+        <v>1.02958000433538</v>
       </c>
       <c r="H12">
         <v>1.007914108598721</v>
@@ -1316,22 +1325,22 @@
         <v>44214</v>
       </c>
       <c r="B13">
+        <v>1.102710583442528</v>
+      </c>
+      <c r="C13">
+        <v>1.023190869354055</v>
+      </c>
+      <c r="D13">
+        <v>1.031873441396509</v>
+      </c>
+      <c r="E13">
+        <v>0.9735096870342771</v>
+      </c>
+      <c r="F13">
         <v>1.050859667659207</v>
       </c>
-      <c r="C13">
-        <v>1.102710583442528</v>
-      </c>
-      <c r="D13">
-        <v>0.9735096870342771</v>
-      </c>
-      <c r="E13">
-        <v>1.023189275710284</v>
-      </c>
-      <c r="F13">
-        <v>1.031873441396509</v>
-      </c>
       <c r="G13">
-        <v>1.036428531048561</v>
+        <v>1.036428849777315</v>
       </c>
       <c r="H13">
         <v>1.023142367573358</v>
@@ -1345,22 +1354,22 @@
         <v>44215</v>
       </c>
       <c r="B14">
+        <v>1.07041606147414</v>
+      </c>
+      <c r="C14">
+        <v>1.002246236036911</v>
+      </c>
+      <c r="D14">
+        <v>1.009273690773067</v>
+      </c>
+      <c r="E14">
+        <v>0.9570789865871833</v>
+      </c>
+      <c r="F14">
         <v>1.02165978292191</v>
       </c>
-      <c r="C14">
-        <v>1.07041606147414</v>
-      </c>
-      <c r="D14">
-        <v>0.9570789865871833</v>
-      </c>
-      <c r="E14">
-        <v>1.002250900360144</v>
-      </c>
-      <c r="F14">
-        <v>1.009273690773067</v>
-      </c>
       <c r="G14">
-        <v>1.012135884423289</v>
+        <v>1.012134951558642</v>
       </c>
       <c r="H14">
         <v>1.017160061629216</v>
@@ -1374,22 +1383,22 @@
         <v>44216</v>
       </c>
       <c r="B15">
+        <v>1.11199543075996</v>
+      </c>
+      <c r="C15">
+        <v>1.01885016998543</v>
+      </c>
+      <c r="D15">
+        <v>1.02930174563591</v>
+      </c>
+      <c r="E15">
+        <v>0.9667287630402384</v>
+      </c>
+      <c r="F15">
         <v>1.069685909134569</v>
       </c>
-      <c r="C15">
-        <v>1.11199543075996</v>
-      </c>
-      <c r="D15">
-        <v>0.9667287630402384</v>
-      </c>
-      <c r="E15">
-        <v>1.018827531012405</v>
-      </c>
-      <c r="F15">
-        <v>1.02930174563591</v>
-      </c>
       <c r="G15">
-        <v>1.039307875916617</v>
+        <v>1.039312403711222</v>
       </c>
       <c r="H15">
         <v>1.026434284942462</v>
@@ -1403,22 +1412,22 @@
         <v>44217</v>
       </c>
       <c r="B16">
+        <v>1.141350292764891</v>
+      </c>
+      <c r="C16">
+        <v>1.037943176299174</v>
+      </c>
+      <c r="D16">
+        <v>1.039043017456359</v>
+      </c>
+      <c r="E16">
+        <v>0.9926602086438151</v>
+      </c>
+      <c r="F16">
         <v>1.099029872250505</v>
       </c>
-      <c r="C16">
-        <v>1.141350292764891</v>
-      </c>
-      <c r="D16">
-        <v>0.9926602086438151</v>
-      </c>
-      <c r="E16">
-        <v>1.037945178071229</v>
-      </c>
-      <c r="F16">
-        <v>1.039043017456359</v>
-      </c>
       <c r="G16">
-        <v>1.06200571383736</v>
+        <v>1.062005313482949</v>
       </c>
       <c r="H16">
         <v>1.04011081950838</v>
@@ -1432,22 +1441,22 @@
         <v>44218</v>
       </c>
       <c r="B17">
+        <v>1.169311773426793</v>
+      </c>
+      <c r="C17">
+        <v>1.059919864011656</v>
+      </c>
+      <c r="D17">
+        <v>1.041536783042394</v>
+      </c>
+      <c r="E17">
+        <v>0.9887108792846497</v>
+      </c>
+      <c r="F17">
         <v>1.13019882816252</v>
       </c>
-      <c r="C17">
-        <v>1.169311773426793</v>
-      </c>
-      <c r="D17">
-        <v>0.9887108792846497</v>
-      </c>
-      <c r="E17">
-        <v>1.059903961584634</v>
-      </c>
-      <c r="F17">
-        <v>1.041536783042394</v>
-      </c>
       <c r="G17">
-        <v>1.077932445100198</v>
+        <v>1.077935625585603</v>
       </c>
       <c r="H17">
         <v>1.042515364113389</v>
@@ -1461,22 +1470,22 @@
         <v>44221</v>
       </c>
       <c r="B18">
+        <v>1.170550022878105</v>
+      </c>
+      <c r="C18">
+        <v>1.0845677513356</v>
+      </c>
+      <c r="D18">
+        <v>1.042939526184539</v>
+      </c>
+      <c r="E18">
+        <v>1.046758569299553</v>
+      </c>
+      <c r="F18">
         <v>1.1354336759197</v>
       </c>
-      <c r="C18">
-        <v>1.170550022878105</v>
-      </c>
-      <c r="D18">
-        <v>1.046758569299553</v>
-      </c>
-      <c r="E18">
-        <v>1.084563825530212</v>
-      </c>
-      <c r="F18">
-        <v>1.042939526184539</v>
-      </c>
       <c r="G18">
-        <v>1.096049123962422</v>
+        <v>1.096049909123499</v>
       </c>
       <c r="H18">
         <v>1.043693292561303</v>
@@ -1490,22 +1499,22 @@
         <v>44222</v>
       </c>
       <c r="B19">
+        <v>1.143111330235736</v>
+      </c>
+      <c r="C19">
+        <v>1.055457746478873</v>
+      </c>
+      <c r="D19">
+        <v>0.9736596009975064</v>
+      </c>
+      <c r="E19">
+        <v>1.02306259314456</v>
+      </c>
+      <c r="F19">
         <v>1.107674574968783</v>
       </c>
-      <c r="C19">
-        <v>1.143111330235736</v>
-      </c>
-      <c r="D19">
-        <v>1.02306259314456</v>
-      </c>
-      <c r="E19">
-        <v>1.055452180872349</v>
-      </c>
-      <c r="F19">
-        <v>0.9736596009975064</v>
-      </c>
       <c r="G19">
-        <v>1.060592056043787</v>
+        <v>1.060593169165092</v>
       </c>
       <c r="H19">
         <v>1.026047924411546</v>
@@ -1519,22 +1528,22 @@
         <v>44223</v>
       </c>
       <c r="B20">
+        <v>1.173343402505447</v>
+      </c>
+      <c r="C20">
+        <v>1.051299174356484</v>
+      </c>
+      <c r="D20">
+        <v>0.971243765586035</v>
+      </c>
+      <c r="E20">
+        <v>0.9937406855439641</v>
+      </c>
+      <c r="F20">
         <v>1.120785707424839</v>
       </c>
-      <c r="C20">
-        <v>1.173343402505447</v>
-      </c>
-      <c r="D20">
-        <v>0.9937406855439641</v>
-      </c>
-      <c r="E20">
-        <v>1.051300520208083</v>
-      </c>
-      <c r="F20">
-        <v>0.971243765586035</v>
-      </c>
       <c r="G20">
-        <v>1.062082816253674</v>
+        <v>1.062082547083354</v>
       </c>
       <c r="H20">
         <v>1.02984870687015</v>
@@ -1548,22 +1557,22 @@
         <v>44224</v>
       </c>
       <c r="B21">
+        <v>1.114061617230356</v>
+      </c>
+      <c r="C21">
+        <v>1.027015541525012</v>
+      </c>
+      <c r="D21">
+        <v>0.9569046134663343</v>
+      </c>
+      <c r="E21">
+        <v>0.9790983606557376</v>
+      </c>
+      <c r="F21">
         <v>1.073191816348093</v>
       </c>
-      <c r="C21">
-        <v>1.114061617230356</v>
-      </c>
-      <c r="D21">
-        <v>0.9790983606557376</v>
-      </c>
-      <c r="E21">
-        <v>1.027000800320128</v>
-      </c>
-      <c r="F21">
-        <v>0.9569046134663343</v>
-      </c>
       <c r="G21">
-        <v>1.03005144160413</v>
+        <v>1.030054389845107</v>
       </c>
       <c r="H21">
         <v>1.007424090364388</v>
@@ -1577,22 +1586,22 @@
         <v>44225</v>
       </c>
       <c r="B22">
+        <v>1.097880501839255</v>
+      </c>
+      <c r="C22">
+        <v>1.025376396308888</v>
+      </c>
+      <c r="D22">
+        <v>0.9264339152119702</v>
+      </c>
+      <c r="E22">
+        <v>0.9960134128166913</v>
+      </c>
+      <c r="F22">
         <v>1.052300451445586</v>
       </c>
-      <c r="C22">
-        <v>1.097880501839255</v>
-      </c>
-      <c r="D22">
-        <v>0.9960134128166913</v>
-      </c>
-      <c r="E22">
-        <v>1.025380152060824</v>
-      </c>
-      <c r="F22">
-        <v>0.9264339152119702</v>
-      </c>
       <c r="G22">
-        <v>1.019601686674866</v>
+        <v>1.019600935524478</v>
       </c>
       <c r="H22">
         <v>0.9967065120596316</v>
@@ -1606,22 +1615,22 @@
         <v>44228</v>
       </c>
       <c r="B23">
+        <v>1.101091952976316</v>
+      </c>
+      <c r="C23">
+        <v>1.030900922778047</v>
+      </c>
+      <c r="D23">
+        <v>0.9218360349127184</v>
+      </c>
+      <c r="E23">
+        <v>0.9940760059612518</v>
+      </c>
+      <c r="F23">
         <v>1.048554413600999</v>
       </c>
-      <c r="C23">
-        <v>1.101091952976316</v>
-      </c>
-      <c r="D23">
-        <v>0.9940760059612518</v>
-      </c>
-      <c r="E23">
-        <v>1.030882352941177</v>
-      </c>
-      <c r="F23">
-        <v>0.9218360349127184</v>
-      </c>
       <c r="G23">
-        <v>1.019288152078492</v>
+        <v>1.019291866045867</v>
       </c>
       <c r="H23">
         <v>1.004110184997589</v>
@@ -1635,22 +1644,22 @@
         <v>44229</v>
       </c>
       <c r="B24">
+        <v>1.137013328468826</v>
+      </c>
+      <c r="C24">
+        <v>1.063289218067023</v>
+      </c>
+      <c r="D24">
+        <v>0.9368765586034913</v>
+      </c>
+      <c r="E24">
+        <v>1.036587183308495</v>
+      </c>
+      <c r="F24">
         <v>1.10436077226011</v>
       </c>
-      <c r="C24">
-        <v>1.137013328468826</v>
-      </c>
-      <c r="D24">
-        <v>1.036587183308495</v>
-      </c>
-      <c r="E24">
-        <v>1.06327531012405</v>
-      </c>
-      <c r="F24">
-        <v>0.9368765586034913</v>
-      </c>
       <c r="G24">
-        <v>1.055622630552994</v>
+        <v>1.055625412141589</v>
       </c>
       <c r="H24">
         <v>1.013770768841751</v>
@@ -1664,22 +1673,22 @@
         <v>44230</v>
       </c>
       <c r="B25">
+        <v>1.143360464903067</v>
+      </c>
+      <c r="C25">
+        <v>1.061650072850898</v>
+      </c>
+      <c r="D25">
+        <v>0.9064058603491273</v>
+      </c>
+      <c r="E25">
+        <v>1.039456035767511</v>
+      </c>
+      <c r="F25">
         <v>1.104120641629046</v>
       </c>
-      <c r="C25">
-        <v>1.143360464903067</v>
-      </c>
-      <c r="D25">
-        <v>1.039456035767511</v>
-      </c>
-      <c r="E25">
-        <v>1.061634653861545</v>
-      </c>
-      <c r="F25">
-        <v>0.9064058603491273</v>
-      </c>
       <c r="G25">
-        <v>1.050995531302059</v>
+        <v>1.05099861509993</v>
       </c>
       <c r="H25">
         <v>1.00506038061224</v>
@@ -1693,22 +1702,22 @@
         <v>44231</v>
       </c>
       <c r="B26">
+        <v>1.139734654198959</v>
+      </c>
+      <c r="C26">
+        <v>1.054547110247693</v>
+      </c>
+      <c r="D26">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="E26">
+        <v>1.046535022354694</v>
+      </c>
+      <c r="F26">
         <v>1.0789069253674</v>
       </c>
-      <c r="C26">
-        <v>1.139734654198959</v>
-      </c>
-      <c r="D26">
-        <v>1.046535022354694</v>
-      </c>
-      <c r="E26">
-        <v>1.054521808723489</v>
-      </c>
-      <c r="F26">
-        <v>0.8935473815461348</v>
-      </c>
       <c r="G26">
-        <v>1.042649158438135</v>
+        <v>1.042654218742976</v>
       </c>
       <c r="H26">
         <v>0.9939815709167896</v>
@@ -1722,22 +1731,22 @@
         <v>44232</v>
       </c>
       <c r="B27">
+        <v>1.122197425865832</v>
+      </c>
+      <c r="C27">
+        <v>1.067781690140845</v>
+      </c>
+      <c r="D27">
+        <v>0.8753117206982545</v>
+      </c>
+      <c r="E27">
+        <v>1.057190760059612</v>
+      </c>
+      <c r="F27">
         <v>1.040774181154548</v>
       </c>
-      <c r="C27">
-        <v>1.122197425865832</v>
-      </c>
-      <c r="D27">
-        <v>1.057190760059612</v>
-      </c>
-      <c r="E27">
-        <v>1.067757102841136</v>
-      </c>
-      <c r="F27">
-        <v>0.8753117206982545</v>
-      </c>
       <c r="G27">
-        <v>1.032646238123877</v>
+        <v>1.032651155583818</v>
       </c>
       <c r="H27">
         <v>0.9800160512383169</v>
@@ -1751,22 +1760,22 @@
         <v>44235</v>
       </c>
       <c r="B28">
+        <v>1.160187383831868</v>
+      </c>
+      <c r="C28">
+        <v>1.085265905779505</v>
+      </c>
+      <c r="D28">
+        <v>0.8789744389027432</v>
+      </c>
+      <c r="E28">
+        <v>1.058271236959761</v>
+      </c>
+      <c r="F28">
         <v>1.066420132552108</v>
       </c>
-      <c r="C28">
-        <v>1.160187383831868</v>
-      </c>
-      <c r="D28">
-        <v>1.058271236959761</v>
-      </c>
-      <c r="E28">
-        <v>1.085244097639056</v>
-      </c>
-      <c r="F28">
-        <v>0.8789744389027432</v>
-      </c>
       <c r="G28">
-        <v>1.049819457977107</v>
+        <v>1.049823819605197</v>
       </c>
       <c r="H28">
         <v>0.9930973392952219</v>
@@ -1780,22 +1789,22 @@
         <v>44236</v>
       </c>
       <c r="B29">
+        <v>1.196258304680301</v>
+      </c>
+      <c r="C29">
+        <v>1.111735065565809</v>
+      </c>
+      <c r="D29">
+        <v>0.9283821695760599</v>
+      </c>
+      <c r="E29">
+        <v>1.085208643815201</v>
+      </c>
+      <c r="F29">
         <v>1.100374603784459</v>
       </c>
-      <c r="C29">
-        <v>1.196258304680301</v>
-      </c>
-      <c r="D29">
-        <v>1.085208643815201</v>
-      </c>
-      <c r="E29">
-        <v>1.11171468587435</v>
-      </c>
-      <c r="F29">
-        <v>0.9283821695760599</v>
-      </c>
       <c r="G29">
-        <v>1.084387681546074</v>
+        <v>1.084391757484366</v>
       </c>
       <c r="H29">
         <v>1.014256075362292</v>
@@ -1809,22 +1818,22 @@
         <v>44237</v>
       </c>
       <c r="B30">
+        <v>1.214785032647653</v>
+      </c>
+      <c r="C30">
+        <v>1.143243079164643</v>
+      </c>
+      <c r="D30">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="E30">
+        <v>1.13349478390462</v>
+      </c>
+      <c r="F30">
         <v>1.116319277687062</v>
       </c>
-      <c r="C30">
-        <v>1.214785032647653</v>
-      </c>
-      <c r="D30">
-        <v>1.13349478390462</v>
-      </c>
-      <c r="E30">
-        <v>1.143237294917967</v>
-      </c>
-      <c r="F30">
-        <v>0.9240960099750624</v>
-      </c>
       <c r="G30">
-        <v>1.106386479826473</v>
+        <v>1.106387636675808</v>
       </c>
       <c r="H30">
         <v>1.024824449396979</v>
@@ -1838,22 +1847,22 @@
         <v>44245</v>
       </c>
       <c r="B31">
+        <v>1.194476137689634</v>
+      </c>
+      <c r="C31">
+        <v>1.111158329286061</v>
+      </c>
+      <c r="D31">
+        <v>0.9183291770573566</v>
+      </c>
+      <c r="E31">
+        <v>1.091356184798808</v>
+      </c>
+      <c r="F31">
         <v>1.101239074056287</v>
       </c>
-      <c r="C31">
-        <v>1.194476137689634</v>
-      </c>
-      <c r="D31">
-        <v>1.091356184798808</v>
-      </c>
-      <c r="E31">
-        <v>1.111154461784714</v>
-      </c>
-      <c r="F31">
-        <v>0.9183291770573566</v>
-      </c>
       <c r="G31">
-        <v>1.08331100707736</v>
+        <v>1.08331178057763</v>
       </c>
       <c r="H31">
         <v>1.038860644782327</v>
@@ -1867,22 +1876,22 @@
         <v>44246</v>
       </c>
       <c r="B32">
+        <v>1.170724968350102</v>
+      </c>
+      <c r="C32">
+        <v>1.10706046624575</v>
+      </c>
+      <c r="D32">
+        <v>0.921524314214464</v>
+      </c>
+      <c r="E32">
+        <v>1.089269746646796</v>
+      </c>
+      <c r="F32">
         <v>1.07674574968783</v>
       </c>
-      <c r="C32">
-        <v>1.170724968350102</v>
-      </c>
-      <c r="D32">
-        <v>1.089269746646796</v>
-      </c>
-      <c r="E32">
-        <v>1.107052821128451</v>
-      </c>
-      <c r="F32">
-        <v>0.921524314214464</v>
-      </c>
       <c r="G32">
-        <v>1.073063520005529</v>
+        <v>1.073065049028989</v>
       </c>
       <c r="H32">
         <v>1.052829305603327</v>
@@ -1896,22 +1905,22 @@
         <v>44249</v>
       </c>
       <c r="B33">
+        <v>1.126369612185044</v>
+      </c>
+      <c r="C33">
+        <v>1.048354783875668</v>
+      </c>
+      <c r="D33">
+        <v>0.8913653366583542</v>
+      </c>
+      <c r="E33">
+        <v>1.005104321907601</v>
+      </c>
+      <c r="F33">
         <v>1.056910959562002</v>
       </c>
-      <c r="C33">
-        <v>1.126369612185044</v>
-      </c>
-      <c r="D33">
-        <v>1.005104321907601</v>
-      </c>
-      <c r="E33">
-        <v>1.048339335734294</v>
-      </c>
-      <c r="F33">
-        <v>0.8913653366583542</v>
-      </c>
       <c r="G33">
-        <v>1.025617913209459</v>
+        <v>1.025621002837734</v>
       </c>
       <c r="H33">
         <v>1.045538713796369</v>
@@ -1925,22 +1934,22 @@
         <v>44250</v>
       </c>
       <c r="B34">
+        <v>1.125951491017229</v>
+      </c>
+      <c r="C34">
+        <v>1.04091792132103</v>
+      </c>
+      <c r="D34">
+        <v>0.9158354114713217</v>
+      </c>
+      <c r="E34">
+        <v>1.005774962742176</v>
+      </c>
+      <c r="F34">
         <v>1.033618288348862</v>
       </c>
-      <c r="C34">
-        <v>1.125951491017229</v>
-      </c>
-      <c r="D34">
-        <v>1.005774962742176</v>
-      </c>
-      <c r="E34">
-        <v>1.040916366546619</v>
-      </c>
-      <c r="F34">
-        <v>0.9158354114713217</v>
-      </c>
       <c r="G34">
-        <v>1.024419304025241</v>
+        <v>1.024419614980124</v>
       </c>
       <c r="H34">
         <v>1.041481928221752</v>
@@ -1954,22 +1963,22 @@
         <v>44251</v>
       </c>
       <c r="B35">
+        <v>1.080099750203639</v>
+      </c>
+      <c r="C35">
+        <v>1.004067508499271</v>
+      </c>
+      <c r="D35">
+        <v>0.9159912718204489</v>
+      </c>
+      <c r="E35">
+        <v>0.9494038748137108</v>
+      </c>
+      <c r="F35">
         <v>0.9825665161848046</v>
       </c>
-      <c r="C35">
-        <v>1.080099750203639</v>
-      </c>
-      <c r="D35">
-        <v>0.9494038748137108</v>
-      </c>
-      <c r="E35">
-        <v>1.00406162464986</v>
-      </c>
-      <c r="F35">
-        <v>0.9159912718204489</v>
-      </c>
       <c r="G35">
-        <v>0.9864246075344927</v>
+        <v>0.986425784304375</v>
       </c>
       <c r="H35">
         <v>1.026555218929781</v>
@@ -1983,22 +1992,22 @@
         <v>44252</v>
       </c>
       <c r="B36">
+        <v>1.071389372569089</v>
+      </c>
+      <c r="C36">
+        <v>1.000516027197669</v>
+      </c>
+      <c r="D36">
+        <v>0.9336814214463841</v>
+      </c>
+      <c r="E36">
+        <v>0.9317436661698956</v>
+      </c>
+      <c r="F36">
         <v>0.9625396215541255</v>
       </c>
-      <c r="C36">
-        <v>1.071389372569089</v>
-      </c>
-      <c r="D36">
-        <v>0.9317436661698956</v>
-      </c>
-      <c r="E36">
-        <v>1.000520208083233</v>
-      </c>
-      <c r="F36">
-        <v>0.9336814214463841</v>
-      </c>
       <c r="G36">
-        <v>0.9799748579645455</v>
+        <v>0.9799740217874325</v>
       </c>
       <c r="H36">
         <v>1.020737822968348</v>
@@ -2012,22 +2021,22 @@
         <v>44253</v>
       </c>
       <c r="B37">
+        <v>1.047416243955229</v>
+      </c>
+      <c r="C37">
+        <v>0.9791160757649344</v>
+      </c>
+      <c r="D37">
+        <v>0.9023534912718205</v>
+      </c>
+      <c r="E37">
+        <v>0.9068926974664678</v>
+      </c>
+      <c r="F37">
         <v>0.9374699836711171</v>
       </c>
-      <c r="C37">
-        <v>1.047416243955229</v>
-      </c>
-      <c r="D37">
-        <v>0.9068926974664678</v>
-      </c>
-      <c r="E37">
-        <v>0.979091636654662</v>
-      </c>
-      <c r="F37">
-        <v>0.9023534912718205</v>
-      </c>
       <c r="G37">
-        <v>0.9546448106038593</v>
+        <v>0.9546496984259137</v>
       </c>
       <c r="H37">
         <v>0.9995665223311676</v>
@@ -2041,22 +2050,22 @@
         <v>44256</v>
       </c>
       <c r="B38">
+        <v>1.095415374640601</v>
+      </c>
+      <c r="C38">
+        <v>0.991773919378339</v>
+      </c>
+      <c r="D38">
+        <v>0.9193422693266834</v>
+      </c>
+      <c r="E38">
+        <v>0.9116616989567808</v>
+      </c>
+      <c r="F38">
         <v>0.980981654019787</v>
       </c>
-      <c r="C38">
-        <v>1.095415374640601</v>
-      </c>
-      <c r="D38">
-        <v>0.9116616989567808</v>
-      </c>
-      <c r="E38">
-        <v>0.9917667066826731</v>
-      </c>
-      <c r="F38">
-        <v>0.9193422693266834</v>
-      </c>
       <c r="G38">
-        <v>0.9798335407253052</v>
+        <v>0.9798349832644384</v>
       </c>
       <c r="H38">
         <v>1.019055741144727</v>
@@ -2070,22 +2079,22 @@
         <v>44257</v>
       </c>
       <c r="B39">
+        <v>1.096756975004088</v>
+      </c>
+      <c r="C39">
+        <v>0.9720738222438077</v>
+      </c>
+      <c r="D39">
+        <v>0.9259663341645885</v>
+      </c>
+      <c r="E39">
+        <v>0.8868107302533531</v>
+      </c>
+      <c r="F39">
         <v>0.9807415233887236</v>
       </c>
-      <c r="C39">
-        <v>1.096756975004088</v>
-      </c>
-      <c r="D39">
-        <v>0.8868107302533531</v>
-      </c>
-      <c r="E39">
-        <v>0.9720588235294118</v>
-      </c>
-      <c r="F39">
-        <v>0.9259663341645885</v>
-      </c>
       <c r="G39">
-        <v>0.972466877268033</v>
+        <v>0.9724698770109123</v>
       </c>
       <c r="H39">
         <v>1.010400322909452</v>
@@ -2099,22 +2108,22 @@
         <v>44258</v>
       </c>
       <c r="B40">
+        <v>1.092751255036991</v>
+      </c>
+      <c r="C40">
+        <v>0.9855512384652744</v>
+      </c>
+      <c r="D40">
+        <v>0.9240960099750624</v>
+      </c>
+      <c r="E40">
+        <v>0.9073025335320417</v>
+      </c>
+      <c r="F40">
         <v>0.9912112189030833</v>
       </c>
-      <c r="C40">
-        <v>1.092751255036991</v>
-      </c>
-      <c r="D40">
-        <v>0.9073025335320417</v>
-      </c>
-      <c r="E40">
-        <v>0.9855342136854741</v>
-      </c>
-      <c r="F40">
-        <v>0.9240960099750624</v>
-      </c>
       <c r="G40">
-        <v>0.9801790462265306</v>
+        <v>0.9801824511824906</v>
       </c>
       <c r="H40">
         <v>1.024758485403896</v>
@@ -2128,22 +2137,22 @@
         <v>44259</v>
       </c>
       <c r="B41">
+        <v>1.022998650553657</v>
+      </c>
+      <c r="C41">
+        <v>0.9455135988343856</v>
+      </c>
+      <c r="D41">
+        <v>0.9117051122194514</v>
+      </c>
+      <c r="E41">
+        <v>0.8619597615499254</v>
+      </c>
+      <c r="F41">
         <v>0.9335798674478917</v>
       </c>
-      <c r="C41">
-        <v>1.022998650553657</v>
-      </c>
-      <c r="D41">
-        <v>0.8619597615499254</v>
-      </c>
-      <c r="E41">
-        <v>0.9455082032813125</v>
-      </c>
-      <c r="F41">
-        <v>0.9117051122194514</v>
-      </c>
       <c r="G41">
-        <v>0.9351503190104477</v>
+        <v>0.9351513981210623</v>
       </c>
       <c r="H41">
         <v>1.005478152568434</v>
@@ -2157,22 +2166,22 @@
         <v>44260</v>
       </c>
       <c r="B42">
+        <v>1.024189476523347</v>
+      </c>
+      <c r="C42">
+        <v>0.9475169985429821</v>
+      </c>
+      <c r="D42">
+        <v>0.892534289276808</v>
+      </c>
+      <c r="E42">
+        <v>0.8716095380029806</v>
+      </c>
+      <c r="F42">
         <v>0.9333397368168285</v>
       </c>
-      <c r="C42">
-        <v>1.024189476523347</v>
-      </c>
-      <c r="D42">
-        <v>0.8716095380029806</v>
-      </c>
-      <c r="E42">
-        <v>0.9474989995998399</v>
-      </c>
-      <c r="F42">
-        <v>0.892534289276808</v>
-      </c>
       <c r="G42">
-        <v>0.9338344080439608</v>
+        <v>0.9338380078325892</v>
       </c>
       <c r="H42">
         <v>1.005715308829281</v>
@@ -2186,22 +2195,22 @@
         <v>44263</v>
       </c>
       <c r="B43">
+        <v>0.9697246010415811</v>
+      </c>
+      <c r="C43">
+        <v>0.8956410879067509</v>
+      </c>
+      <c r="D43">
+        <v>0.8323721945137158</v>
+      </c>
+      <c r="E43">
+        <v>0.8118479880774961</v>
+      </c>
+      <c r="F43">
         <v>0.8843050619537028</v>
       </c>
-      <c r="C43">
-        <v>0.9697246010415811</v>
-      </c>
-      <c r="D43">
-        <v>0.8118479880774961</v>
-      </c>
-      <c r="E43">
-        <v>0.8956182472989196</v>
-      </c>
-      <c r="F43">
-        <v>0.8323721945137158</v>
-      </c>
       <c r="G43">
-        <v>0.8787736185770831</v>
+        <v>0.8787781866986494</v>
       </c>
       <c r="H43">
         <v>0.9826137761087841</v>
@@ -2215,22 +2224,22 @@
         <v>44264</v>
       </c>
       <c r="B44">
+        <v>0.9405647215503586</v>
+      </c>
+      <c r="C44">
+        <v>0.880099562894609</v>
+      </c>
+      <c r="D44">
+        <v>0.7886533665835412</v>
+      </c>
+      <c r="E44">
+        <v>0.7886363636363635</v>
+      </c>
+      <c r="F44">
         <v>0.8690807799442898</v>
       </c>
-      <c r="C44">
-        <v>0.9405647215503586</v>
-      </c>
-      <c r="D44">
-        <v>0.7886363636363635</v>
-      </c>
-      <c r="E44">
-        <v>0.8801020408163265</v>
-      </c>
-      <c r="F44">
-        <v>0.7886533665835412</v>
-      </c>
       <c r="G44">
-        <v>0.8534074545061761</v>
+        <v>0.8534069589218325</v>
       </c>
       <c r="H44">
         <v>0.9593049279814547</v>
@@ -2244,22 +2253,22 @@
         <v>44265</v>
       </c>
       <c r="B45">
+        <v>0.9575414961981824</v>
+      </c>
+      <c r="C45">
+        <v>0.899951432734337</v>
+      </c>
+      <c r="D45">
+        <v>0.7831203241895262</v>
+      </c>
+      <c r="E45">
+        <v>0.8135245901639344</v>
+      </c>
+      <c r="F45">
         <v>0.890500432235136</v>
       </c>
-      <c r="C45">
-        <v>0.9575414961981824</v>
-      </c>
-      <c r="D45">
-        <v>0.8135245901639344</v>
-      </c>
-      <c r="E45">
-        <v>0.8999499799919968</v>
-      </c>
-      <c r="F45">
-        <v>0.7831203241895262</v>
-      </c>
       <c r="G45">
-        <v>0.8689273645557553</v>
+        <v>0.8689276551042233</v>
       </c>
       <c r="H45">
         <v>0.952121135020441</v>
@@ -2273,22 +2282,22 @@
         <v>44266</v>
       </c>
       <c r="B46">
+        <v>0.9878844301670798</v>
+      </c>
+      <c r="C46">
+        <v>0.9214728023312287</v>
+      </c>
+      <c r="D46">
+        <v>0.7966801745635911</v>
+      </c>
+      <c r="E46">
+        <v>0.8441505216095379</v>
+      </c>
+      <c r="F46">
         <v>0.9168187493996736</v>
       </c>
-      <c r="C46">
-        <v>0.9878844301670798</v>
-      </c>
-      <c r="D46">
-        <v>0.8441505216095379</v>
-      </c>
-      <c r="E46">
-        <v>0.921468587434974</v>
-      </c>
-      <c r="F46">
-        <v>0.7966801745635911</v>
-      </c>
       <c r="G46">
-        <v>0.8934004926349712</v>
+        <v>0.8934013356142223</v>
       </c>
       <c r="H46">
         <v>0.9759262836671583</v>
@@ -2302,22 +2311,22 @@
         <v>44267</v>
       </c>
       <c r="B47">
+        <v>1.003011366253994</v>
+      </c>
+      <c r="C47">
+        <v>0.9221709567751335</v>
+      </c>
+      <c r="D47">
+        <v>0.7906795511221946</v>
+      </c>
+      <c r="E47">
+        <v>0.8434053651266765</v>
+      </c>
+      <c r="F47">
         <v>0.9207568917491116</v>
       </c>
-      <c r="C47">
-        <v>1.003011366253994</v>
-      </c>
-      <c r="D47">
-        <v>0.8434053651266765</v>
-      </c>
-      <c r="E47">
-        <v>0.9221688675470188</v>
-      </c>
-      <c r="F47">
-        <v>0.7906795511221946</v>
-      </c>
       <c r="G47">
-        <v>0.8960044083597992</v>
+        <v>0.8960048262054221</v>
       </c>
       <c r="H47">
         <v>0.9772691220977807</v>
@@ -2331,22 +2340,22 @@
         <v>44270</v>
       </c>
       <c r="B48">
+        <v>0.957573314623156</v>
+      </c>
+      <c r="C48">
+        <v>0.8913003885381253</v>
+      </c>
+      <c r="D48">
+        <v>0.7855361596009975</v>
+      </c>
+      <c r="E48">
+        <v>0.8051415797317436</v>
+      </c>
+      <c r="F48">
         <v>0.8923734511574297</v>
       </c>
-      <c r="C48">
-        <v>0.957573314623156</v>
-      </c>
-      <c r="D48">
-        <v>0.8051415797317436</v>
-      </c>
-      <c r="E48">
-        <v>0.891296518607443</v>
-      </c>
-      <c r="F48">
-        <v>0.7855361596009975</v>
-      </c>
       <c r="G48">
-        <v>0.866384204744154</v>
+        <v>0.8663849787302906</v>
       </c>
       <c r="H48">
         <v>0.9696502808966706</v>
@@ -2360,22 +2369,22 @@
         <v>44271</v>
       </c>
       <c r="B49">
+        <v>0.9641298964915476</v>
+      </c>
+      <c r="C49">
+        <v>0.9025619232637202</v>
+      </c>
+      <c r="D49">
+        <v>0.7842113466334165</v>
+      </c>
+      <c r="E49">
+        <v>0.8263412816691506</v>
+      </c>
+      <c r="F49">
         <v>0.894870809720488</v>
       </c>
-      <c r="C49">
-        <v>0.9641298964915476</v>
-      </c>
-      <c r="D49">
-        <v>0.8263412816691506</v>
-      </c>
-      <c r="E49">
-        <v>0.9025510204081633</v>
-      </c>
-      <c r="F49">
-        <v>0.7842113466334165</v>
-      </c>
       <c r="G49">
-        <v>0.8744208709845532</v>
+        <v>0.8744230515556647</v>
       </c>
       <c r="H49">
         <v>0.9730065916875945</v>
@@ -2389,22 +2398,22 @@
         <v>44272</v>
       </c>
       <c r="B50">
+        <v>0.9797492298432793</v>
+      </c>
+      <c r="C50">
+        <v>0.9137627489072365</v>
+      </c>
+      <c r="D50">
+        <v>0.7973815461346635</v>
+      </c>
+      <c r="E50">
+        <v>0.8384873323397913</v>
+      </c>
+      <c r="F50">
         <v>0.9174430890404381</v>
       </c>
-      <c r="C50">
-        <v>0.9797492298432793</v>
-      </c>
-      <c r="D50">
-        <v>0.8384873323397913</v>
-      </c>
-      <c r="E50">
-        <v>0.913765506202481</v>
-      </c>
-      <c r="F50">
-        <v>0.7973815461346635</v>
-      </c>
       <c r="G50">
-        <v>0.8893653407121307</v>
+        <v>0.8893647892530818</v>
       </c>
       <c r="H50">
         <v>0.9777371523344186</v>
@@ -2418,22 +2427,22 @@
         <v>44273</v>
       </c>
       <c r="B51">
+        <v>0.9930284130093138</v>
+      </c>
+      <c r="C51">
+        <v>0.9281508013598835</v>
+      </c>
+      <c r="D51">
+        <v>0.8066552369077307</v>
+      </c>
+      <c r="E51">
+        <v>0.8647168405365127</v>
+      </c>
+      <c r="F51">
         <v>0.9207568917491116</v>
       </c>
-      <c r="C51">
-        <v>0.9930284130093138</v>
-      </c>
-      <c r="D51">
-        <v>0.8647168405365127</v>
-      </c>
-      <c r="E51">
-        <v>0.9281512605042016</v>
-      </c>
-      <c r="F51">
-        <v>0.8066552369077307</v>
-      </c>
       <c r="G51">
-        <v>0.9026617285413741</v>
+        <v>0.9026616367125104</v>
       </c>
       <c r="H51">
         <v>0.9853544229642648</v>
@@ -2447,22 +2456,22 @@
         <v>44274</v>
       </c>
       <c r="B52">
+        <v>0.9594343262556518</v>
+      </c>
+      <c r="C52">
+        <v>0.9076007770762506</v>
+      </c>
+      <c r="D52">
+        <v>0.8120324189526186</v>
+      </c>
+      <c r="E52">
+        <v>0.8422131147540983</v>
+      </c>
+      <c r="F52">
         <v>0.8901162232254347</v>
       </c>
-      <c r="C52">
-        <v>0.9594343262556518</v>
-      </c>
-      <c r="D52">
-        <v>0.8422131147540983</v>
-      </c>
-      <c r="E52">
-        <v>0.9075830332132854</v>
-      </c>
-      <c r="F52">
-        <v>0.8120324189526186</v>
-      </c>
       <c r="G52">
-        <v>0.8822758232802178</v>
+        <v>0.8822793720528108</v>
       </c>
       <c r="H52">
         <v>0.9747907606433689</v>
@@ -2476,22 +2485,22 @@
         <v>44277</v>
       </c>
       <c r="B53">
+        <v>0.9743116683378479</v>
+      </c>
+      <c r="C53">
+        <v>0.9131253035454104</v>
+      </c>
+      <c r="D53">
+        <v>0.8185006234413966</v>
+      </c>
+      <c r="E53">
+        <v>0.8442622950819672</v>
+      </c>
+      <c r="F53">
         <v>0.9013543367591971</v>
       </c>
-      <c r="C53">
-        <v>0.9743116683378479</v>
-      </c>
-      <c r="D53">
-        <v>0.8442622950819672</v>
-      </c>
-      <c r="E53">
-        <v>0.9131252501000399</v>
-      </c>
-      <c r="F53">
-        <v>0.8185006234413966</v>
-      </c>
       <c r="G53">
-        <v>0.8903108347440897</v>
+        <v>0.8903108454331639</v>
       </c>
       <c r="H53">
         <v>0.9903535512972134</v>
@@ -2505,22 +2514,22 @@
         <v>44278</v>
       </c>
       <c r="B54">
+        <v>0.9522220340594204</v>
+      </c>
+      <c r="C54">
+        <v>0.9053545410393395</v>
+      </c>
+      <c r="D54">
+        <v>0.8129675810473815</v>
+      </c>
+      <c r="E54">
+        <v>0.8527570789865871</v>
+      </c>
+      <c r="F54">
         <v>0.8681682835462493</v>
       </c>
-      <c r="C54">
-        <v>0.9522220340594204</v>
-      </c>
-      <c r="D54">
-        <v>0.8527570789865871</v>
-      </c>
-      <c r="E54">
-        <v>0.9053421368547419</v>
-      </c>
-      <c r="F54">
-        <v>0.8129675810473815</v>
-      </c>
       <c r="G54">
-        <v>0.8782914228988761</v>
+        <v>0.8782939037357956</v>
       </c>
       <c r="H54">
         <v>0.9767649687220733</v>
@@ -2534,22 +2543,22 @@
         <v>44279</v>
       </c>
       <c r="B55">
+        <v>0.9211961771261079</v>
+      </c>
+      <c r="C55">
+        <v>0.8951250607090822</v>
+      </c>
+      <c r="D55">
+        <v>0.7979270573566085</v>
+      </c>
+      <c r="E55">
+        <v>0.8531296572280178</v>
+      </c>
+      <c r="F55">
         <v>0.8384881375468255</v>
       </c>
-      <c r="C55">
-        <v>0.9211961771261079</v>
-      </c>
-      <c r="D55">
-        <v>0.8531296572280178</v>
-      </c>
-      <c r="E55">
-        <v>0.8951180472188875</v>
-      </c>
-      <c r="F55">
-        <v>0.7979270573566085</v>
-      </c>
       <c r="G55">
-        <v>0.8611718152952896</v>
+        <v>0.8611732179933285</v>
       </c>
       <c r="H55">
         <v>0.9647296811269164</v>
@@ -2563,22 +2572,22 @@
         <v>44280</v>
       </c>
       <c r="B56">
+        <v>0.9254323106583666</v>
+      </c>
+      <c r="C56">
+        <v>0.9021673142302089</v>
+      </c>
+      <c r="D56">
+        <v>0.8013559850374066</v>
+      </c>
+      <c r="E56">
+        <v>0.8469448584202682</v>
+      </c>
+      <c r="F56">
         <v>0.8523676880222841</v>
       </c>
-      <c r="C56">
-        <v>0.9254323106583666</v>
-      </c>
-      <c r="D56">
-        <v>0.8469448584202682</v>
-      </c>
-      <c r="E56">
-        <v>0.9021608643457384</v>
-      </c>
-      <c r="F56">
-        <v>0.8013559850374066</v>
-      </c>
       <c r="G56">
-        <v>0.8656523412968129</v>
+        <v>0.8656536312737069</v>
       </c>
       <c r="H56">
         <v>0.9670651205963146</v>
@@ -2592,22 +2601,22 @@
         <v>44281</v>
       </c>
       <c r="B57">
+        <v>0.966795915517327</v>
+      </c>
+      <c r="C57">
+        <v>0.9293953375424964</v>
+      </c>
+      <c r="D57">
+        <v>0.8143703241895262</v>
+      </c>
+      <c r="E57">
+        <v>0.8766020864381519</v>
+      </c>
+      <c r="F57">
         <v>0.8949188358467006</v>
       </c>
-      <c r="C57">
-        <v>0.966795915517327</v>
-      </c>
-      <c r="D57">
-        <v>0.8766020864381519</v>
-      </c>
-      <c r="E57">
-        <v>0.9293717486994798</v>
-      </c>
-      <c r="F57">
-        <v>0.8143703241895262</v>
-      </c>
       <c r="G57">
-        <v>0.8964117821382371</v>
+        <v>0.8964164999068405</v>
       </c>
       <c r="H57">
         <v>0.9818881721848689</v>
@@ -2621,22 +2630,22 @@
         <v>44284</v>
       </c>
       <c r="B58">
+        <v>0.9613277397957485</v>
+      </c>
+      <c r="C58">
+        <v>0.9314898008742108</v>
+      </c>
+      <c r="D58">
+        <v>0.8287874064837905</v>
+      </c>
+      <c r="E58">
+        <v>0.8956780923994038</v>
+      </c>
+      <c r="F58">
         <v>0.8840169051964269</v>
       </c>
-      <c r="C58">
-        <v>0.9613277397957485</v>
-      </c>
-      <c r="D58">
-        <v>0.8956780923994038</v>
-      </c>
-      <c r="E58">
-        <v>0.9314725890356143</v>
-      </c>
-      <c r="F58">
-        <v>0.8287874064837905</v>
-      </c>
       <c r="G58">
-        <v>0.9002565465821968</v>
+        <v>0.9002599889499161</v>
       </c>
       <c r="H58">
         <v>0.9823829021329928</v>
@@ -2650,22 +2659,22 @@
         <v>44285</v>
       </c>
       <c r="B59">
+        <v>0.9855462042326004</v>
+      </c>
+      <c r="C59">
+        <v>0.9448154443904808</v>
+      </c>
+      <c r="D59">
+        <v>0.8463996259351622</v>
+      </c>
+      <c r="E59">
+        <v>0.8993666169895678</v>
+      </c>
+      <c r="F59">
         <v>0.8964076457592931</v>
       </c>
-      <c r="C59">
-        <v>0.9855462042326004</v>
-      </c>
-      <c r="D59">
-        <v>0.8993666169895678</v>
-      </c>
-      <c r="E59">
-        <v>0.9447979191676671</v>
-      </c>
-      <c r="F59">
-        <v>0.8463996259351622</v>
-      </c>
       <c r="G59">
-        <v>0.9145036024168582</v>
+        <v>0.9145071074614208</v>
       </c>
       <c r="H59">
         <v>0.9863752942857905</v>
@@ -2679,22 +2688,22 @@
         <v>44286</v>
       </c>
       <c r="B60">
+        <v>0.9740848425701178</v>
+      </c>
+      <c r="C60">
+        <v>0.9352537639630889</v>
+      </c>
+      <c r="D60">
+        <v>0.8123441396508729</v>
+      </c>
+      <c r="E60">
+        <v>0.8858420268256334</v>
+      </c>
+      <c r="F60">
         <v>0.883872826817789</v>
       </c>
-      <c r="C60">
-        <v>0.9740848425701178</v>
-      </c>
-      <c r="D60">
-        <v>0.8858420268256334</v>
-      </c>
-      <c r="E60">
-        <v>0.9352340936374549</v>
-      </c>
-      <c r="F60">
-        <v>0.8123441396508729</v>
-      </c>
       <c r="G60">
-        <v>0.8982755859003737</v>
+        <v>0.8982795199655005</v>
       </c>
       <c r="H60">
         <v>0.9822462624330348</v>
@@ -2708,22 +2717,22 @@
         <v>44287</v>
       </c>
       <c r="B61">
+        <v>0.987651620598789</v>
+      </c>
+      <c r="C61">
+        <v>0.955287761049053</v>
+      </c>
+      <c r="D61">
+        <v>0.8189682044887781</v>
+      </c>
+      <c r="E61">
+        <v>0.906929955290611</v>
+      </c>
+      <c r="F61">
         <v>0.9008260493708578</v>
       </c>
-      <c r="C61">
-        <v>0.987651620598789</v>
-      </c>
-      <c r="D61">
-        <v>0.906929955290611</v>
-      </c>
-      <c r="E61">
-        <v>0.9552921168467386</v>
-      </c>
-      <c r="F61">
-        <v>0.8189682044887781</v>
-      </c>
       <c r="G61">
-        <v>0.9139335893191549</v>
+        <v>0.9139327181596177</v>
       </c>
       <c r="H61">
         <v>0.9912911823417532</v>
@@ -2737,22 +2746,22 @@
         <v>44288</v>
       </c>
       <c r="B62">
+        <v>0.9912429189262187</v>
+      </c>
+      <c r="C62">
+        <v>0.9748360854783876</v>
+      </c>
+      <c r="D62">
+        <v>0.8223192019950125</v>
+      </c>
+      <c r="E62">
+        <v>0.947354694485842</v>
+      </c>
+      <c r="F62">
         <v>0.913937181826914</v>
       </c>
-      <c r="C62">
-        <v>0.9912429189262187</v>
-      </c>
-      <c r="D62">
-        <v>0.947354694485842</v>
-      </c>
-      <c r="E62">
-        <v>0.9748299319727892</v>
-      </c>
-      <c r="F62">
-        <v>0.8223192019950125</v>
-      </c>
       <c r="G62">
-        <v>0.9299367858413553</v>
+        <v>0.9299380165424751</v>
       </c>
       <c r="H62">
         <v>0.9936391863812625</v>
@@ -2766,22 +2775,22 @@
         <v>44292</v>
       </c>
       <c r="B63">
+        <v>0.9972846580704282</v>
+      </c>
+      <c r="C63">
+        <v>0.9630585235551238</v>
+      </c>
+      <c r="D63">
+        <v>0.8305018703241897</v>
+      </c>
+      <c r="E63">
+        <v>0.9347988077496273</v>
+      </c>
+      <c r="F63">
         <v>0.9183075593122659</v>
       </c>
-      <c r="C63">
-        <v>0.9972846580704282</v>
-      </c>
-      <c r="D63">
-        <v>0.9347988077496273</v>
-      </c>
-      <c r="E63">
-        <v>0.9630552220888355</v>
-      </c>
-      <c r="F63">
-        <v>0.8305018703241897</v>
-      </c>
       <c r="G63">
-        <v>0.9287896235090694</v>
+        <v>0.928790283802327</v>
       </c>
       <c r="H63">
         <v>0.9962290583954103</v>
@@ -2795,22 +2804,22 @@
         <v>44293</v>
       </c>
       <c r="B64">
+        <v>0.9818758502164342</v>
+      </c>
+      <c r="C64">
+        <v>0.9513720252549781</v>
+      </c>
+      <c r="D64">
+        <v>0.8252805486284289</v>
+      </c>
+      <c r="E64">
+        <v>0.8970566318926975</v>
+      </c>
+      <c r="F64">
         <v>0.911391797137643</v>
       </c>
-      <c r="C64">
-        <v>0.9818758502164342</v>
-      </c>
-      <c r="D64">
-        <v>0.8970566318926975</v>
-      </c>
-      <c r="E64">
-        <v>0.9513705482192877</v>
-      </c>
-      <c r="F64">
-        <v>0.8252805486284289</v>
-      </c>
       <c r="G64">
-        <v>0.9133950752188982</v>
+        <v>0.9133953706260364</v>
       </c>
       <c r="H64">
         <v>0.9970112028848254</v>
@@ -2824,22 +2833,22 @@
         <v>44294</v>
       </c>
       <c r="B65">
+        <v>0.9747396466377068</v>
+      </c>
+      <c r="C65">
+        <v>0.9649708596406021</v>
+      </c>
+      <c r="D65">
+        <v>0.823176433915212</v>
+      </c>
+      <c r="E65">
+        <v>0.9143442622950819</v>
+      </c>
+      <c r="F65">
         <v>0.9065411583901642</v>
       </c>
-      <c r="C65">
-        <v>0.9747396466377068</v>
-      </c>
-      <c r="D65">
-        <v>0.9143442622950819</v>
-      </c>
-      <c r="E65">
-        <v>0.9649759903961583</v>
-      </c>
-      <c r="F65">
-        <v>0.823176433915212</v>
-      </c>
       <c r="G65">
-        <v>0.9167554983268648</v>
+        <v>0.9167544721757536</v>
       </c>
       <c r="H65">
         <v>0.9983728881706143</v>
@@ -2853,22 +2862,22 @@
         <v>44295</v>
       </c>
       <c r="B66">
+        <v>0.9524671215919324</v>
+      </c>
+      <c r="C66">
+        <v>0.9463938805245264</v>
+      </c>
+      <c r="D66">
+        <v>0.8278522443890275</v>
+      </c>
+      <c r="E66">
+        <v>0.8903129657228018</v>
+      </c>
+      <c r="F66">
         <v>0.8905964844875613</v>
       </c>
-      <c r="C66">
-        <v>0.9524671215919324</v>
-      </c>
-      <c r="D66">
-        <v>0.8903129657228018</v>
-      </c>
-      <c r="E66">
-        <v>0.9463985594237695</v>
-      </c>
-      <c r="F66">
-        <v>0.8278522443890275</v>
-      </c>
       <c r="G66">
-        <v>0.9015254751230185</v>
+        <v>0.9015245393431699</v>
       </c>
       <c r="H66">
         <v>0.9949945893819959</v>
@@ -2882,22 +2891,22 @@
         <v>44298</v>
       </c>
       <c r="B67">
+        <v>0.9278043537561812</v>
+      </c>
+      <c r="C67">
+        <v>0.9303059737736765</v>
+      </c>
+      <c r="D67">
+        <v>0.8005766832917707</v>
+      </c>
+      <c r="E67">
+        <v>0.8872578241430701</v>
+      </c>
+      <c r="F67">
         <v>0.8604841033522237</v>
       </c>
-      <c r="C67">
-        <v>0.9278043537561812</v>
-      </c>
-      <c r="D67">
-        <v>0.8872578241430701</v>
-      </c>
-      <c r="E67">
-        <v>0.93031212484994</v>
-      </c>
-      <c r="F67">
-        <v>0.8005766832917707</v>
-      </c>
       <c r="G67">
-        <v>0.8812870178786372</v>
+        <v>0.8812857876633844</v>
       </c>
       <c r="H67">
         <v>0.9779036328883906</v>
@@ -2911,22 +2920,22 @@
         <v>44299</v>
       </c>
       <c r="B68">
+        <v>0.9331816427476655</v>
+      </c>
+      <c r="C68">
+        <v>0.9264813016027198</v>
+      </c>
+      <c r="D68">
+        <v>0.7983167082294265</v>
+      </c>
+      <c r="E68">
+        <v>0.8989195230998509</v>
+      </c>
+      <c r="F68">
         <v>0.8655748727307656</v>
       </c>
-      <c r="C68">
-        <v>0.9331816427476655</v>
-      </c>
-      <c r="D68">
-        <v>0.8989195230998509</v>
-      </c>
-      <c r="E68">
-        <v>0.9264705882352939</v>
-      </c>
-      <c r="F68">
-        <v>0.7983167082294265</v>
-      </c>
       <c r="G68">
-        <v>0.8844926670086004</v>
+        <v>0.8844948096820857</v>
       </c>
       <c r="H68">
         <v>0.9752902023052845</v>
@@ -2940,22 +2949,22 @@
         <v>44300</v>
       </c>
       <c r="B69">
+        <v>0.9573434845406216</v>
+      </c>
+      <c r="C69">
+        <v>0.9382892180670228</v>
+      </c>
+      <c r="D69">
+        <v>0.810240024937656</v>
+      </c>
+      <c r="E69">
+        <v>0.9118852459016392</v>
+      </c>
+      <c r="F69">
         <v>0.9065411583901642</v>
       </c>
-      <c r="C69">
-        <v>0.9573434845406216</v>
-      </c>
-      <c r="D69">
-        <v>0.9118852459016392</v>
-      </c>
-      <c r="E69">
-        <v>0.938265306122449</v>
-      </c>
-      <c r="F69">
-        <v>0.810240024937656</v>
-      </c>
       <c r="G69">
-        <v>0.9048550439785061</v>
+        <v>0.9048598263674209</v>
       </c>
       <c r="H69">
         <v>0.9858805643376666</v>
@@ -2969,22 +2978,22 @@
         <v>44301</v>
       </c>
       <c r="B70">
+        <v>0.9588850704709834</v>
+      </c>
+      <c r="C70">
+        <v>0.9296381738708112</v>
+      </c>
+      <c r="D70">
+        <v>0.8079800498753117</v>
+      </c>
+      <c r="E70">
+        <v>0.9050670640834574</v>
+      </c>
+      <c r="F70">
         <v>0.9049082700989339</v>
       </c>
-      <c r="C70">
-        <v>0.9588850704709834</v>
-      </c>
-      <c r="D70">
-        <v>0.9050670640834574</v>
-      </c>
-      <c r="E70">
-        <v>0.9296418567426971</v>
-      </c>
-      <c r="F70">
-        <v>0.8079800498753117</v>
-      </c>
       <c r="G70">
-        <v>0.9012964622542767</v>
+        <v>0.9012957256798996</v>
       </c>
       <c r="H70">
         <v>0.9857627714928752</v>
@@ -2998,22 +3007,22 @@
         <v>44302</v>
       </c>
       <c r="B71">
+        <v>0.9539997194069288</v>
+      </c>
+      <c r="C71">
+        <v>0.9337967459932005</v>
+      </c>
+      <c r="D71">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="E71">
+        <v>0.9268256333830104</v>
+      </c>
+      <c r="F71">
         <v>0.8990010565747767</v>
       </c>
-      <c r="C71">
-        <v>0.9539997194069288</v>
-      </c>
-      <c r="D71">
-        <v>0.9268256333830104</v>
-      </c>
-      <c r="E71">
-        <v>0.933783513405362</v>
-      </c>
-      <c r="F71">
-        <v>0.8092269326683292</v>
-      </c>
       <c r="G71">
-        <v>0.9045673710876815</v>
+        <v>0.9045700176052492</v>
       </c>
       <c r="H71">
         <v>0.9956777878817863</v>
@@ -3027,22 +3036,22 @@
         <v>44305</v>
       </c>
       <c r="B72">
+        <v>0.9988562623197857</v>
+      </c>
+      <c r="C72">
+        <v>0.9552574065080135</v>
+      </c>
+      <c r="D72">
+        <v>0.820682668329177</v>
+      </c>
+      <c r="E72">
+        <v>0.9380402384500744</v>
+      </c>
+      <c r="F72">
         <v>0.9587455575833254</v>
       </c>
-      <c r="C72">
-        <v>0.9988562623197857</v>
-      </c>
-      <c r="D72">
-        <v>0.9380402384500744</v>
-      </c>
-      <c r="E72">
-        <v>0.9552420968387355</v>
-      </c>
-      <c r="F72">
-        <v>0.820682668329177</v>
-      </c>
       <c r="G72">
-        <v>0.9343133647042197</v>
+        <v>0.9343164266380752</v>
       </c>
       <c r="H72">
         <v>1.009132871899496</v>
@@ -3056,22 +3065,22 @@
         <v>44306</v>
       </c>
       <c r="B73">
+        <v>0.9977594639547586</v>
+      </c>
+      <c r="C73">
+        <v>0.9559859154929577</v>
+      </c>
+      <c r="D73">
+        <v>0.8162406483790525</v>
+      </c>
+      <c r="E73">
+        <v>0.9503353204172875</v>
+      </c>
+      <c r="F73">
         <v>0.9505330900009606</v>
       </c>
-      <c r="C73">
-        <v>0.9977594639547586</v>
-      </c>
-      <c r="D73">
-        <v>0.9503353204172875</v>
-      </c>
-      <c r="E73">
-        <v>0.9559723889555821</v>
-      </c>
-      <c r="F73">
-        <v>0.8162406483790525</v>
-      </c>
       <c r="G73">
-        <v>0.9341681823415283</v>
+        <v>0.9341708876490035</v>
       </c>
       <c r="H73">
         <v>1.009648019274051</v>
@@ -3085,22 +3094,22 @@
         <v>44307</v>
       </c>
       <c r="B74">
+        <v>0.9944365800504087</v>
+      </c>
+      <c r="C74">
+        <v>0.9653351141330744</v>
+      </c>
+      <c r="D74">
+        <v>0.8091490024937656</v>
+      </c>
+      <c r="E74">
+        <v>0.9720566318926974</v>
+      </c>
+      <c r="F74">
         <v>0.9491403323407934</v>
       </c>
-      <c r="C74">
-        <v>0.9944365800504087</v>
-      </c>
-      <c r="D74">
-        <v>0.9720566318926974</v>
-      </c>
-      <c r="E74">
-        <v>0.9653361344537815</v>
-      </c>
-      <c r="F74">
-        <v>0.8091490024937656</v>
-      </c>
       <c r="G74">
-        <v>0.9380237362462894</v>
+        <v>0.938023532182148</v>
       </c>
       <c r="H74">
         <v>1.008347586267553</v>
@@ -3114,22 +3123,22 @@
         <v>44308</v>
       </c>
       <c r="B75">
+        <v>0.9946952863157321</v>
+      </c>
+      <c r="C75">
+        <v>0.9624514327343371</v>
+      </c>
+      <c r="D75">
+        <v>0.8092269326683292</v>
+      </c>
+      <c r="E75">
+        <v>0.9710134128166914</v>
+      </c>
+      <c r="F75">
         <v>0.9515416386514265</v>
       </c>
-      <c r="C75">
-        <v>0.9946952863157321</v>
-      </c>
-      <c r="D75">
-        <v>0.9710134128166914</v>
-      </c>
-      <c r="E75">
-        <v>0.9624349739895959</v>
-      </c>
-      <c r="F75">
-        <v>0.8092269326683292</v>
-      </c>
       <c r="G75">
-        <v>0.9377824488883552</v>
+        <v>0.9377857406373034</v>
       </c>
       <c r="H75">
         <v>1.012306996423809</v>
@@ -3143,22 +3152,22 @@
         <v>44309</v>
       </c>
       <c r="B76">
+        <v>1.011937222781352</v>
+      </c>
+      <c r="C76">
+        <v>0.9756860126274891</v>
+      </c>
+      <c r="D76">
+        <v>0.8061097256857855</v>
+      </c>
+      <c r="E76">
+        <v>0.9826751117734724</v>
+      </c>
+      <c r="F76">
         <v>0.9658053981365864</v>
       </c>
-      <c r="C76">
-        <v>1.011937222781352</v>
-      </c>
-      <c r="D76">
-        <v>0.9826751117734724</v>
-      </c>
-      <c r="E76">
-        <v>0.975670268107243</v>
-      </c>
-      <c r="F76">
-        <v>0.8061097256857855</v>
-      </c>
       <c r="G76">
-        <v>0.9484395452968878</v>
+        <v>0.9484426942009371</v>
       </c>
       <c r="H76">
         <v>1.015022514139068</v>
@@ -3172,22 +3181,22 @@
         <v>44312</v>
       </c>
       <c r="B77">
+        <v>0.9875027952852568</v>
+      </c>
+      <c r="C77">
+        <v>0.9610854783875667</v>
+      </c>
+      <c r="D77">
+        <v>0.8057200748129677</v>
+      </c>
+      <c r="E77">
+        <v>0.96602086438152</v>
+      </c>
+      <c r="F77">
         <v>0.9528863701853809</v>
       </c>
-      <c r="C77">
-        <v>0.9875027952852568</v>
-      </c>
-      <c r="D77">
-        <v>0.96602086438152</v>
-      </c>
-      <c r="E77">
-        <v>0.9610644257703082</v>
-      </c>
-      <c r="F77">
-        <v>0.8057200748129677</v>
-      </c>
       <c r="G77">
-        <v>0.9346389060870868</v>
+        <v>0.9346431166105384</v>
       </c>
       <c r="H77">
         <v>1.011864095327393</v>
@@ -3201,22 +3210,22 @@
         <v>44313</v>
       </c>
       <c r="B78">
+        <v>0.9833019065865914</v>
+      </c>
+      <c r="C78">
+        <v>0.973439776590578</v>
+      </c>
+      <c r="D78">
+        <v>0.7945760598503742</v>
+      </c>
+      <c r="E78">
+        <v>0.9794336810730253</v>
+      </c>
+      <c r="F78">
         <v>0.9460186341369706</v>
       </c>
-      <c r="C78">
-        <v>0.9833019065865914</v>
-      </c>
-      <c r="D78">
-        <v>0.9794336810730253</v>
-      </c>
-      <c r="E78">
-        <v>0.9734393757503</v>
-      </c>
-      <c r="F78">
-        <v>0.7945760598503742</v>
-      </c>
       <c r="G78">
-        <v>0.9353539314794524</v>
+        <v>0.935354011647508</v>
       </c>
       <c r="H78">
         <v>1.012434212696184</v>
@@ -3230,22 +3239,22 @@
         <v>44314</v>
       </c>
       <c r="B79">
+        <v>1.008222176478839</v>
+      </c>
+      <c r="C79">
+        <v>0.9802999028654686</v>
+      </c>
+      <c r="D79">
+        <v>0.8017456359102244</v>
+      </c>
+      <c r="E79">
+        <v>1.002272727272727</v>
+      </c>
+      <c r="F79">
         <v>0.9720487945442321</v>
       </c>
-      <c r="C79">
-        <v>1.008222176478839</v>
-      </c>
-      <c r="D79">
-        <v>1.002272727272727</v>
-      </c>
-      <c r="E79">
-        <v>0.9803021208483393</v>
-      </c>
-      <c r="F79">
-        <v>0.8017456359102244</v>
-      </c>
       <c r="G79">
-        <v>0.9529182910108726</v>
+        <v>0.9529178474142985</v>
       </c>
       <c r="H79">
         <v>1.019259915409032</v>
@@ -3259,22 +3268,22 @@
         <v>44315</v>
       </c>
       <c r="B80">
+        <v>1.010195961647215</v>
+      </c>
+      <c r="C80">
+        <v>0.984974502185527</v>
+      </c>
+      <c r="D80">
+        <v>0.801278054862843</v>
+      </c>
+      <c r="E80">
+        <v>1.002496274217586</v>
+      </c>
+      <c r="F80">
         <v>0.9715685332821056</v>
       </c>
-      <c r="C80">
-        <v>1.010195961647215</v>
-      </c>
-      <c r="D80">
-        <v>1.002496274217586</v>
-      </c>
-      <c r="E80">
-        <v>0.9849739895958384</v>
-      </c>
-      <c r="F80">
-        <v>0.801278054862843</v>
-      </c>
       <c r="G80">
-        <v>0.9541025627211175</v>
+        <v>0.9541026652390553</v>
       </c>
       <c r="H80">
         <v>1.019603870515823</v>
@@ -3288,22 +3297,22 @@
         <v>44316</v>
       </c>
       <c r="B81">
+        <v>1.023828313191575</v>
+      </c>
+      <c r="C81">
+        <v>0.9901954832442934</v>
+      </c>
+      <c r="D81">
+        <v>0.7742362842892769</v>
+      </c>
+      <c r="E81">
+        <v>0.9933681073025334</v>
+      </c>
+      <c r="F81">
         <v>0.9920756891749113</v>
       </c>
-      <c r="C81">
-        <v>1.023828313191575</v>
-      </c>
-      <c r="D81">
-        <v>0.9933681073025334</v>
-      </c>
-      <c r="E81">
-        <v>0.9901760704281712</v>
-      </c>
-      <c r="F81">
-        <v>0.7742362842892769</v>
-      </c>
       <c r="G81">
-        <v>0.9547368928772937</v>
+        <v>0.9547407754405182</v>
       </c>
       <c r="H81">
         <v>1.018626975189686</v>
@@ -3317,22 +3326,22 @@
         <v>44322</v>
       </c>
       <c r="B82">
+        <v>1.015476504253284</v>
+      </c>
+      <c r="C82">
+        <v>0.9645762506070908</v>
+      </c>
+      <c r="D82">
+        <v>0.7846009975062345</v>
+      </c>
+      <c r="E82">
+        <v>0.9628912071535022</v>
+      </c>
+      <c r="F82">
         <v>0.9846316396119489</v>
       </c>
-      <c r="C82">
-        <v>1.015476504253284</v>
-      </c>
-      <c r="D82">
-        <v>0.9628912071535022</v>
-      </c>
-      <c r="E82">
-        <v>0.9645658263305322</v>
-      </c>
-      <c r="F82">
-        <v>0.7846009975062345</v>
-      </c>
       <c r="G82">
-        <v>0.9424332349711005</v>
+        <v>0.9424353198264122</v>
       </c>
       <c r="H82">
         <v>1.01919866312974</v>
@@ -3346,22 +3355,22 @@
         <v>44323</v>
       </c>
       <c r="B83">
+        <v>0.9879733678169083</v>
+      </c>
+      <c r="C83">
+        <v>0.9401104905293832</v>
+      </c>
+      <c r="D83">
+        <v>0.7733011221945137</v>
+      </c>
+      <c r="E83">
+        <v>0.9475782414307004</v>
+      </c>
+      <c r="F83">
         <v>0.9554317548746519</v>
       </c>
-      <c r="C83">
-        <v>0.9879733678169083</v>
-      </c>
-      <c r="D83">
-        <v>0.9475782414307004</v>
-      </c>
-      <c r="E83">
-        <v>0.9401060424169667</v>
-      </c>
-      <c r="F83">
-        <v>0.7733011221945137</v>
-      </c>
       <c r="G83">
-        <v>0.9208781057467483</v>
+        <v>0.9208789953692317</v>
       </c>
       <c r="H83">
         <v>1.012145227583629</v>
@@ -3375,22 +3384,22 @@
         <v>44326</v>
       </c>
       <c r="B84">
+        <v>0.9855024306210293</v>
+      </c>
+      <c r="C84">
+        <v>0.9445726080621661</v>
+      </c>
+      <c r="D84">
+        <v>0.7623129675810474</v>
+      </c>
+      <c r="E84">
+        <v>0.93301043219076</v>
+      </c>
+      <c r="F84">
         <v>0.9644126404764194</v>
       </c>
-      <c r="C84">
-        <v>0.9855024306210293</v>
-      </c>
-      <c r="D84">
-        <v>0.93301043219076</v>
-      </c>
-      <c r="E84">
-        <v>0.944577831132453</v>
-      </c>
-      <c r="F84">
-        <v>0.7623129675810474</v>
-      </c>
       <c r="G84">
-        <v>0.9179632604003419</v>
+        <v>0.9179622157862846</v>
       </c>
       <c r="H84">
         <v>1.017100379921189</v>
@@ -3404,22 +3413,22 @@
         <v>44327</v>
       </c>
       <c r="B85">
+        <v>0.9754708124423276</v>
+      </c>
+      <c r="C85">
+        <v>0.9620264691597863</v>
+      </c>
+      <c r="D85">
+        <v>0.7819513715710724</v>
+      </c>
+      <c r="E85">
+        <v>0.9653129657228017</v>
+      </c>
+      <c r="F85">
         <v>0.9444817980981655</v>
       </c>
-      <c r="C85">
-        <v>0.9754708124423276</v>
-      </c>
-      <c r="D85">
-        <v>0.9653129657228017</v>
-      </c>
-      <c r="E85">
-        <v>0.9620248099239697</v>
-      </c>
-      <c r="F85">
-        <v>0.7819513715710724</v>
-      </c>
       <c r="G85">
-        <v>0.9258483515516673</v>
+        <v>0.9258486833988309</v>
       </c>
       <c r="H85">
         <v>1.013967090249737</v>
@@ -3433,22 +3442,22 @@
         <v>44328</v>
       </c>
       <c r="B86">
+        <v>0.9719066646788531</v>
+      </c>
+      <c r="C86">
+        <v>0.9700704225352114</v>
+      </c>
+      <c r="D86">
+        <v>0.7791458852867831</v>
+      </c>
+      <c r="E86">
+        <v>0.9804769001490313</v>
+      </c>
+      <c r="F86">
         <v>0.9481798098165403</v>
       </c>
-      <c r="C86">
-        <v>0.9719066646788531</v>
-      </c>
-      <c r="D86">
-        <v>0.9804769001490313</v>
-      </c>
-      <c r="E86">
-        <v>0.9700680272108843</v>
-      </c>
-      <c r="F86">
-        <v>0.7791458852867831</v>
-      </c>
       <c r="G86">
-        <v>0.9299554574284185</v>
+        <v>0.9299559364932839</v>
       </c>
       <c r="H86">
         <v>1.022763859898761</v>
@@ -3462,22 +3471,22 @@
         <v>44329</v>
       </c>
       <c r="B87">
+        <v>0.9534158271003422</v>
+      </c>
+      <c r="C87">
+        <v>0.9667617775619232</v>
+      </c>
+      <c r="D87">
+        <v>0.7760286783042395</v>
+      </c>
+      <c r="E87">
+        <v>0.9859165424739195</v>
+      </c>
+      <c r="F87">
         <v>0.9260877917587168</v>
       </c>
-      <c r="C87">
-        <v>0.9534158271003422</v>
-      </c>
-      <c r="D87">
-        <v>0.9859165424739195</v>
-      </c>
-      <c r="E87">
-        <v>0.9667567026810725</v>
-      </c>
-      <c r="F87">
-        <v>0.7760286783042395</v>
-      </c>
       <c r="G87">
-        <v>0.9216411084636581</v>
+        <v>0.9216421234398283</v>
       </c>
       <c r="H87">
         <v>1.011295548529867</v>
@@ -3491,22 +3500,22 @@
         <v>44330</v>
       </c>
       <c r="B88">
+        <v>0.9784768404510082</v>
+      </c>
+      <c r="C88">
+        <v>0.9860065565808644</v>
+      </c>
+      <c r="D88">
+        <v>0.8062655860349127</v>
+      </c>
+      <c r="E88">
+        <v>1.004470938897168</v>
+      </c>
+      <c r="F88">
         <v>0.9557679377581405</v>
       </c>
-      <c r="C88">
-        <v>0.9784768404510082</v>
-      </c>
-      <c r="D88">
-        <v>1.004470938897168</v>
-      </c>
-      <c r="E88">
-        <v>0.9860044017607043</v>
-      </c>
-      <c r="F88">
-        <v>0.8062655860349127</v>
-      </c>
       <c r="G88">
-        <v>0.9461971409803869</v>
+        <v>0.9461975719444189</v>
       </c>
       <c r="H88">
         <v>1.024923395386604</v>
@@ -3520,22 +3529,22 @@
         <v>44333</v>
       </c>
       <c r="B89">
+        <v>1.00820822255388</v>
+      </c>
+      <c r="C89">
+        <v>1.008043953375425</v>
+      </c>
+      <c r="D89">
+        <v>0.8110193266832918</v>
+      </c>
+      <c r="E89">
+        <v>1.023919523099851</v>
+      </c>
+      <c r="F89">
         <v>1.002449332436846</v>
       </c>
-      <c r="C89">
-        <v>1.00820822255388</v>
-      </c>
-      <c r="D89">
-        <v>1.023919523099851</v>
-      </c>
-      <c r="E89">
-        <v>1.008043217286915</v>
-      </c>
-      <c r="F89">
-        <v>0.8110193266832918</v>
-      </c>
       <c r="G89">
-        <v>0.9707279244121567</v>
+        <v>0.9707280716298587</v>
       </c>
       <c r="H89">
         <v>1.033143765381782</v>
@@ -3549,22 +3558,22 @@
         <v>44334</v>
       </c>
       <c r="B90">
+        <v>1.000863988796736</v>
+      </c>
+      <c r="C90">
+        <v>1.005919135502671</v>
+      </c>
+      <c r="D90">
+        <v>0.8293329177057358</v>
+      </c>
+      <c r="E90">
+        <v>1.02876304023845</v>
+      </c>
+      <c r="F90">
         <v>1.003361828834886</v>
       </c>
-      <c r="C90">
-        <v>1.000863988796736</v>
-      </c>
-      <c r="D90">
-        <v>1.02876304023845</v>
-      </c>
-      <c r="E90">
-        <v>1.005902360944378</v>
-      </c>
-      <c r="F90">
-        <v>0.8293329177057358</v>
-      </c>
       <c r="G90">
-        <v>0.9736448273040371</v>
+        <v>0.9736481822156959</v>
       </c>
       <c r="H90">
         <v>1.036514211314081</v>
@@ -3578,22 +3587,22 @@
         <v>44335</v>
       </c>
       <c r="B91">
+        <v>1.012187536828461</v>
+      </c>
+      <c r="C91">
+        <v>1.003187226809131</v>
+      </c>
+      <c r="D91">
+        <v>0.8308915211970076</v>
+      </c>
+      <c r="E91">
+        <v>1.01795827123696</v>
+      </c>
+      <c r="F91">
         <v>1.040149841513784</v>
       </c>
-      <c r="C91">
-        <v>1.012187536828461</v>
-      </c>
-      <c r="D91">
-        <v>1.01795827123696</v>
-      </c>
-      <c r="E91">
-        <v>1.003171268507403</v>
-      </c>
-      <c r="F91">
-        <v>0.8308915211970076</v>
-      </c>
       <c r="G91">
-        <v>0.9808716878567231</v>
+        <v>0.9808748795170685</v>
       </c>
       <c r="H91">
         <v>1.034125372421711</v>
@@ -3607,22 +3616,22 @@
         <v>44336</v>
       </c>
       <c r="B92">
+        <v>1.012817151826885</v>
+      </c>
+      <c r="C92">
+        <v>1.006344099077222</v>
+      </c>
+      <c r="D92">
+        <v>0.8322942643391522</v>
+      </c>
+      <c r="E92">
+        <v>1.040238450074515</v>
+      </c>
+      <c r="F92">
         <v>1.044616271251561</v>
       </c>
-      <c r="C92">
-        <v>1.012817151826885</v>
-      </c>
-      <c r="D92">
-        <v>1.040238450074515</v>
-      </c>
-      <c r="E92">
-        <v>1.006332533013205</v>
-      </c>
-      <c r="F92">
-        <v>0.8322942643391522</v>
-      </c>
       <c r="G92">
-        <v>0.9872597341010637</v>
+        <v>0.9872620473138671</v>
       </c>
       <c r="H92">
         <v>1.028521574152166</v>
@@ -3636,22 +3645,22 @@
         <v>44337</v>
       </c>
       <c r="B93">
+        <v>1.004362736847858</v>
+      </c>
+      <c r="C93">
+        <v>0.9988768819815445</v>
+      </c>
+      <c r="D93">
+        <v>0.8153054862842893</v>
+      </c>
+      <c r="E93">
+        <v>1.041207153502235</v>
+      </c>
+      <c r="F93">
         <v>1.040437998271059</v>
       </c>
-      <c r="C93">
-        <v>1.004362736847858</v>
-      </c>
-      <c r="D93">
-        <v>1.041207153502235</v>
-      </c>
-      <c r="E93">
-        <v>0.9988695478191276</v>
-      </c>
-      <c r="F93">
-        <v>0.8153054862842893</v>
-      </c>
       <c r="G93">
-        <v>0.980036584544914</v>
+        <v>0.9800380513773973</v>
       </c>
       <c r="H93">
         <v>1.025246933066964</v>
@@ -3665,22 +3674,22 @@
         <v>44340</v>
       </c>
       <c r="B94">
+        <v>1.010270560521841</v>
+      </c>
+      <c r="C94">
+        <v>1.004826372025255</v>
+      </c>
+      <c r="D94">
+        <v>0.8232543640897756</v>
+      </c>
+      <c r="E94">
+        <v>1.068405365126676</v>
+      </c>
+      <c r="F94">
         <v>1.046825473057343</v>
       </c>
-      <c r="C94">
-        <v>1.010270560521841</v>
-      </c>
-      <c r="D94">
-        <v>1.068405365126676</v>
-      </c>
-      <c r="E94">
-        <v>1.004821928771509</v>
-      </c>
-      <c r="F94">
-        <v>0.8232543640897756</v>
-      </c>
       <c r="G94">
-        <v>0.990715538313429</v>
+        <v>0.9907164269641783</v>
       </c>
       <c r="H94">
         <v>1.027800681942043</v>
@@ -3694,22 +3703,22 @@
         <v>44341</v>
       </c>
       <c r="B95">
+        <v>1.027854939217063</v>
+      </c>
+      <c r="C95">
+        <v>1.03584871296746</v>
+      </c>
+      <c r="D95">
+        <v>0.8514650872817956</v>
+      </c>
+      <c r="E95">
+        <v>1.102906110283159</v>
+      </c>
+      <c r="F95">
         <v>1.060320814523101</v>
       </c>
-      <c r="C95">
-        <v>1.027854939217063</v>
-      </c>
-      <c r="D95">
-        <v>1.102906110283159</v>
-      </c>
-      <c r="E95">
-        <v>1.035834333733493</v>
-      </c>
-      <c r="F95">
-        <v>0.8514650872817956</v>
-      </c>
       <c r="G95">
-        <v>1.015676257007722</v>
+        <v>1.015679132854516</v>
       </c>
       <c r="H95">
         <v>1.0396663478407</v>
@@ -3723,22 +3732,22 @@
         <v>44342</v>
       </c>
       <c r="B96">
+        <v>1.019992001818778</v>
+      </c>
+      <c r="C96">
+        <v>1.039339485186984</v>
+      </c>
+      <c r="D96">
+        <v>0.8516209476309228</v>
+      </c>
+      <c r="E96">
+        <v>1.0924739195231</v>
+      </c>
+      <c r="F96">
         <v>1.051195850542695</v>
       </c>
-      <c r="C96">
-        <v>1.019992001818778</v>
-      </c>
-      <c r="D96">
-        <v>1.0924739195231</v>
-      </c>
-      <c r="E96">
-        <v>1.039335734293718</v>
-      </c>
-      <c r="F96">
-        <v>0.8516209476309228</v>
-      </c>
       <c r="G96">
-        <v>1.010923690761842</v>
+        <v>1.010924440940496</v>
       </c>
       <c r="H96">
         <v>1.041007615700059</v>
@@ -3752,22 +3761,22 @@
         <v>44343</v>
       </c>
       <c r="B97">
+        <v>1.027098174663985</v>
+      </c>
+      <c r="C97">
+        <v>1.043680184555609</v>
+      </c>
+      <c r="D97">
+        <v>0.8588684538653368</v>
+      </c>
+      <c r="E97">
+        <v>1.099478390461997</v>
+      </c>
+      <c r="F97">
         <v>1.054605705503794</v>
       </c>
-      <c r="C97">
-        <v>1.027098174663985</v>
-      </c>
-      <c r="D97">
-        <v>1.099478390461997</v>
-      </c>
-      <c r="E97">
-        <v>1.043657462985194</v>
-      </c>
-      <c r="F97">
-        <v>0.8588684538653368</v>
-      </c>
       <c r="G97">
-        <v>1.016741637496061</v>
+        <v>1.016746181810144</v>
       </c>
       <c r="H97">
         <v>1.049991283329486</v>
@@ -3781,22 +3790,22 @@
         <v>44344</v>
       </c>
       <c r="B98">
+        <v>1.045181443420068</v>
+      </c>
+      <c r="C98">
+        <v>1.035545167557067</v>
+      </c>
+      <c r="D98">
+        <v>0.8636221945137158</v>
+      </c>
+      <c r="E98">
+        <v>1.099850968703428</v>
+      </c>
+      <c r="F98">
         <v>1.100230525405821</v>
       </c>
-      <c r="C98">
-        <v>1.045181443420068</v>
-      </c>
-      <c r="D98">
-        <v>1.099850968703428</v>
-      </c>
-      <c r="E98">
-        <v>1.035534213685474</v>
-      </c>
-      <c r="F98">
-        <v>0.8636221945137158</v>
-      </c>
       <c r="G98">
-        <v>1.028883869145701</v>
+        <v>1.02888605992002</v>
       </c>
       <c r="H98">
         <v>1.047283618470546</v>
@@ -3810,22 +3819,22 @@
         <v>44347</v>
       </c>
       <c r="B99">
+        <v>1.077606578595302</v>
+      </c>
+      <c r="C99">
+        <v>1.03997693054881</v>
+      </c>
+      <c r="D99">
+        <v>0.8893391521197008</v>
+      </c>
+      <c r="E99">
+        <v>1.103725782414307</v>
+      </c>
+      <c r="F99">
         <v>1.15565267505523</v>
       </c>
-      <c r="C99">
-        <v>1.077606578595302</v>
-      </c>
-      <c r="D99">
-        <v>1.103725782414307</v>
-      </c>
-      <c r="E99">
-        <v>1.039975990396158</v>
-      </c>
-      <c r="F99">
-        <v>0.8893391521197008</v>
-      </c>
       <c r="G99">
-        <v>1.05326003571614</v>
+        <v>1.05326022374667</v>
       </c>
       <c r="H99">
         <v>1.0568358328975</v>
@@ -3839,22 +3848,22 @@
         <v>44348</v>
       </c>
       <c r="B100">
+        <v>1.070294895720047</v>
+      </c>
+      <c r="C100">
+        <v>1.045865711510442</v>
+      </c>
+      <c r="D100">
+        <v>0.883806109725686</v>
+      </c>
+      <c r="E100">
+        <v>1.112220566318927</v>
+      </c>
+      <c r="F100">
         <v>1.144894822783594</v>
       </c>
-      <c r="C100">
-        <v>1.070294895720047</v>
-      </c>
-      <c r="D100">
-        <v>1.112220566318927</v>
-      </c>
-      <c r="E100">
-        <v>1.045858343337335</v>
-      </c>
-      <c r="F100">
-        <v>0.883806109725686</v>
-      </c>
       <c r="G100">
-        <v>1.051414947577118</v>
+        <v>1.051416421211739</v>
       </c>
       <c r="H100">
         <v>1.058527338148705</v>
@@ -3868,22 +3877,22 @@
         <v>44349</v>
       </c>
       <c r="B101">
+        <v>1.061065243376252</v>
+      </c>
+      <c r="C101">
+        <v>1.030627731908694</v>
+      </c>
+      <c r="D101">
+        <v>0.8630766832917706</v>
+      </c>
+      <c r="E101">
+        <v>1.098211624441133</v>
+      </c>
+      <c r="F101">
         <v>1.139131687638075</v>
       </c>
-      <c r="C101">
-        <v>1.061065243376252</v>
-      </c>
-      <c r="D101">
-        <v>1.098211624441133</v>
-      </c>
-      <c r="E101">
-        <v>1.030612244897959</v>
-      </c>
-      <c r="F101">
-        <v>0.8630766832917706</v>
-      </c>
       <c r="G101">
-        <v>1.038419496729038</v>
+        <v>1.038422594131185</v>
       </c>
       <c r="H101">
         <v>1.049366195966459</v>
@@ -3897,22 +3906,22 @@
         <v>44350</v>
       </c>
       <c r="B102">
+        <v>1.038995236460245</v>
+      </c>
+      <c r="C102">
+        <v>1.025953132588635</v>
+      </c>
+      <c r="D102">
+        <v>0.8511533665835412</v>
+      </c>
+      <c r="E102">
+        <v>1.111251862891207</v>
+      </c>
+      <c r="F102">
         <v>1.133560656997407</v>
       </c>
-      <c r="C102">
-        <v>1.038995236460245</v>
-      </c>
-      <c r="D102">
-        <v>1.111251862891207</v>
-      </c>
-      <c r="E102">
-        <v>1.02593037214886</v>
-      </c>
-      <c r="F102">
-        <v>0.8511533665835412</v>
-      </c>
       <c r="G102">
-        <v>1.032178299016252</v>
+        <v>1.032182851104207</v>
       </c>
       <c r="H102">
         <v>1.047214513334935</v>
@@ -3926,22 +3935,22 @@
         <v>44351</v>
       </c>
       <c r="B103">
+        <v>1.049185810204051</v>
+      </c>
+      <c r="C103">
+        <v>1.030627731908694</v>
+      </c>
+      <c r="D103">
+        <v>0.8606608478802994</v>
+      </c>
+      <c r="E103">
+        <v>1.132786885245902</v>
+      </c>
+      <c r="F103">
         <v>1.162376332725003</v>
       </c>
-      <c r="C103">
-        <v>1.049185810204051</v>
-      </c>
-      <c r="D103">
-        <v>1.132786885245902</v>
-      </c>
-      <c r="E103">
-        <v>1.030612244897959</v>
-      </c>
-      <c r="F103">
-        <v>0.8606608478802994</v>
-      </c>
       <c r="G103">
-        <v>1.047124424190643</v>
+        <v>1.04712752159279</v>
       </c>
       <c r="H103">
         <v>1.051192770346358</v>
@@ -3955,22 +3964,22 @@
         <v>44354</v>
       </c>
       <c r="B104">
+        <v>1.027612260102204</v>
+      </c>
+      <c r="C104">
+        <v>1.029292132102962</v>
+      </c>
+      <c r="D104">
+        <v>0.8759351620947633</v>
+      </c>
+      <c r="E104">
+        <v>1.155663189269746</v>
+      </c>
+      <c r="F104">
         <v>1.137114590337144</v>
       </c>
-      <c r="C104">
-        <v>1.027612260102204</v>
-      </c>
-      <c r="D104">
-        <v>1.155663189269746</v>
-      </c>
-      <c r="E104">
-        <v>1.029291716686675</v>
-      </c>
-      <c r="F104">
-        <v>0.8759351620947633</v>
-      </c>
       <c r="G104">
-        <v>1.045123383698106</v>
+        <v>1.045123466781364</v>
       </c>
       <c r="H104">
         <v>1.055659475020849</v>
@@ -3984,22 +3993,22 @@
         <v>44355</v>
       </c>
       <c r="B105">
+        <v>1.02929647649863</v>
+      </c>
+      <c r="C105">
+        <v>1.013811316172899</v>
+      </c>
+      <c r="D105">
+        <v>0.8875467581047383</v>
+      </c>
+      <c r="E105">
+        <v>1.08204172876304</v>
+      </c>
+      <c r="F105">
         <v>1.128710018249928</v>
       </c>
-      <c r="C105">
-        <v>1.02929647649863</v>
-      </c>
-      <c r="D105">
-        <v>1.08204172876304</v>
-      </c>
-      <c r="E105">
-        <v>1.013805522208884</v>
-      </c>
-      <c r="F105">
-        <v>0.8875467581047383</v>
-      </c>
       <c r="G105">
-        <v>1.028280100765044</v>
+        <v>1.028281259557847</v>
       </c>
       <c r="H105">
         <v>1.049857784772055</v>
@@ -4013,22 +4022,22 @@
         <v>44356</v>
       </c>
       <c r="B106">
+        <v>1.03198327743756</v>
+      </c>
+      <c r="C106">
+        <v>1.018607333657115</v>
+      </c>
+      <c r="D106">
+        <v>0.8935473815461348</v>
+      </c>
+      <c r="E106">
+        <v>1.080849478390462</v>
+      </c>
+      <c r="F106">
         <v>1.127413312842186</v>
       </c>
-      <c r="C106">
-        <v>1.03198327743756</v>
-      </c>
-      <c r="D106">
-        <v>1.080849478390462</v>
-      </c>
-      <c r="E106">
-        <v>1.018607442977191</v>
-      </c>
-      <c r="F106">
-        <v>0.8935473815461348</v>
-      </c>
       <c r="G106">
-        <v>1.030480178638707</v>
+        <v>1.030480156774692</v>
       </c>
       <c r="H106">
         <v>1.051167641206136</v>
@@ -4042,22 +4051,22 @@
         <v>44357</v>
       </c>
       <c r="B107">
+        <v>1.06555237375444</v>
+      </c>
+      <c r="C107">
+        <v>1.032054395337543</v>
+      </c>
+      <c r="D107">
+        <v>0.8955735660847881</v>
+      </c>
+      <c r="E107">
+        <v>1.095230998509687</v>
+      </c>
+      <c r="F107">
         <v>1.169964460666603</v>
       </c>
-      <c r="C107">
-        <v>1.06555237375444</v>
-      </c>
-      <c r="D107">
-        <v>1.095230998509687</v>
-      </c>
-      <c r="E107">
-        <v>1.032052821128451</v>
-      </c>
-      <c r="F107">
-        <v>0.8955735660847881</v>
-      </c>
       <c r="G107">
-        <v>1.051674844028794</v>
+        <v>1.051675158870612</v>
       </c>
       <c r="H107">
         <v>1.062591976579641</v>
@@ -4071,22 +4080,22 @@
         <v>44358</v>
       </c>
       <c r="B108">
+        <v>1.081025017090765</v>
+      </c>
+      <c r="C108">
+        <v>1.022948033025741</v>
+      </c>
+      <c r="D108">
+        <v>0.8650249376558605</v>
+      </c>
+      <c r="E108">
+        <v>1.065871833084948</v>
+      </c>
+      <c r="F108">
         <v>1.182163096724618</v>
       </c>
-      <c r="C108">
-        <v>1.081025017090765</v>
-      </c>
-      <c r="D108">
-        <v>1.065871833084948</v>
-      </c>
-      <c r="E108">
-        <v>1.022929171668667</v>
-      </c>
-      <c r="F108">
-        <v>0.8650249376558605</v>
-      </c>
       <c r="G108">
-        <v>1.043402811244972</v>
+        <v>1.043406583516387</v>
       </c>
       <c r="H108">
         <v>1.056353667519487</v>
@@ -4100,22 +4109,22 @@
         <v>44362</v>
       </c>
       <c r="B109">
+        <v>1.066108730646828</v>
+      </c>
+      <c r="C109">
+        <v>1.012839970859641</v>
+      </c>
+      <c r="D109">
+        <v>0.8675966334164589</v>
+      </c>
+      <c r="E109">
+        <v>1.067511177347243</v>
+      </c>
+      <c r="F109">
         <v>1.177408510229565</v>
       </c>
-      <c r="C109">
-        <v>1.066108730646828</v>
-      </c>
-      <c r="D109">
-        <v>1.067511177347243</v>
-      </c>
-      <c r="E109">
-        <v>1.012845138055222</v>
-      </c>
-      <c r="F109">
-        <v>0.8675966334164589</v>
-      </c>
       <c r="G109">
-        <v>1.038294037939063</v>
+        <v>1.038293004499947</v>
       </c>
       <c r="H109">
         <v>1.046575290830534</v>
@@ -4129,22 +4138,22 @@
         <v>44363</v>
       </c>
       <c r="B110">
+        <v>1.021693263356634</v>
+      </c>
+      <c r="C110">
+        <v>0.9944754735308401</v>
+      </c>
+      <c r="D110">
+        <v>0.8565305486284289</v>
+      </c>
+      <c r="E110">
+        <v>1.050521609538003</v>
+      </c>
+      <c r="F110">
         <v>1.10147920468735</v>
       </c>
-      <c r="C110">
-        <v>1.021693263356634</v>
-      </c>
-      <c r="D110">
-        <v>1.050521609538003</v>
-      </c>
-      <c r="E110">
-        <v>0.9944777911164465</v>
-      </c>
-      <c r="F110">
-        <v>0.8565305486284289</v>
-      </c>
       <c r="G110">
-        <v>1.004940483465373</v>
+        <v>1.004940019948251</v>
       </c>
       <c r="H110">
         <v>1.031282638434078</v>
@@ -4158,22 +4167,22 @@
         <v>44364</v>
       </c>
       <c r="B111">
+        <v>1.039040226695167</v>
+      </c>
+      <c r="C111">
+        <v>0.9994232637202526</v>
+      </c>
+      <c r="D111">
+        <v>0.8651028678304241</v>
+      </c>
+      <c r="E111">
+        <v>1.077198211624441</v>
+      </c>
+      <c r="F111">
         <v>1.133128421861493</v>
       </c>
-      <c r="C111">
-        <v>1.039040226695167</v>
-      </c>
-      <c r="D111">
-        <v>1.077198211624441</v>
-      </c>
-      <c r="E111">
-        <v>0.9993997599039616</v>
-      </c>
-      <c r="F111">
-        <v>0.8651028678304241</v>
-      </c>
       <c r="G111">
-        <v>1.022773897583097</v>
+        <v>1.022778598346356</v>
       </c>
       <c r="H111">
         <v>1.03911664789834</v>
@@ -4187,22 +4196,22 @@
         <v>44365</v>
       </c>
       <c r="B112">
+        <v>1.06684170897195</v>
+      </c>
+      <c r="C112">
+        <v>1.002883681398737</v>
+      </c>
+      <c r="D112">
+        <v>0.8840399002493767</v>
+      </c>
+      <c r="E112">
+        <v>1.064232488822653</v>
+      </c>
+      <c r="F112">
         <v>1.187926231870138</v>
       </c>
-      <c r="C112">
-        <v>1.06684170897195</v>
-      </c>
-      <c r="D112">
-        <v>1.064232488822653</v>
-      </c>
-      <c r="E112">
-        <v>1.002881152460984</v>
-      </c>
-      <c r="F112">
-        <v>0.8840399002493767</v>
-      </c>
       <c r="G112">
-        <v>1.04118429647502</v>
+        <v>1.041184802262571</v>
       </c>
       <c r="H112">
         <v>1.045648653784841</v>
@@ -4216,22 +4225,22 @@
         <v>44368</v>
       </c>
       <c r="B113">
+        <v>1.081004197934042</v>
+      </c>
+      <c r="C113">
+        <v>1.002398008742108</v>
+      </c>
+      <c r="D113">
+        <v>0.9191084788029926</v>
+      </c>
+      <c r="E113">
+        <v>1.055663189269747</v>
+      </c>
+      <c r="F113">
         <v>1.192968975122467</v>
       </c>
-      <c r="C113">
-        <v>1.081004197934042</v>
-      </c>
-      <c r="D113">
-        <v>1.055663189269747</v>
-      </c>
-      <c r="E113">
-        <v>1.002400960384153</v>
-      </c>
-      <c r="F113">
-        <v>0.9191084788029926</v>
-      </c>
       <c r="G113">
-        <v>1.05022916030268</v>
+        <v>1.050228569974271</v>
       </c>
       <c r="H113">
         <v>1.053410416970965</v>
@@ -4245,22 +4254,22 @@
         <v>44369</v>
       </c>
       <c r="B114">
+        <v>1.085273316856529</v>
+      </c>
+      <c r="C114">
+        <v>1.0183644973288</v>
+      </c>
+      <c r="D114">
+        <v>0.912562344139651</v>
+      </c>
+      <c r="E114">
+        <v>1.063561847988078</v>
+      </c>
+      <c r="F114">
         <v>1.193593314763231</v>
       </c>
-      <c r="C114">
-        <v>1.085273316856529</v>
-      </c>
-      <c r="D114">
-        <v>1.063561847988078</v>
-      </c>
-      <c r="E114">
-        <v>1.018367346938776</v>
-      </c>
-      <c r="F114">
-        <v>0.912562344139651</v>
-      </c>
       <c r="G114">
-        <v>1.054671634137253</v>
+        <v>1.054671064215258</v>
       </c>
       <c r="H114">
         <v>1.058532049862497</v>
@@ -4274,22 +4283,22 @@
         <v>44370</v>
       </c>
       <c r="B115">
+        <v>1.100747512008352</v>
+      </c>
+      <c r="C115">
+        <v>1.019578678970374</v>
+      </c>
+      <c r="D115">
+        <v>0.9116271820448878</v>
+      </c>
+      <c r="E115">
+        <v>1.02973174366617</v>
+      </c>
+      <c r="F115">
         <v>1.227211603112093</v>
       </c>
-      <c r="C115">
-        <v>1.100747512008352</v>
-      </c>
-      <c r="D115">
-        <v>1.02973174366617</v>
-      </c>
-      <c r="E115">
-        <v>1.019567827130852</v>
-      </c>
-      <c r="F115">
-        <v>0.9116271820448878</v>
-      </c>
       <c r="G115">
-        <v>1.057777173592471</v>
+        <v>1.057779343960375</v>
       </c>
       <c r="H115">
         <v>1.066410035322148</v>
@@ -4303,22 +4312,22 @@
         <v>44371</v>
       </c>
       <c r="B116">
+        <v>1.113809018910833</v>
+      </c>
+      <c r="C116">
+        <v>1.012506070908208</v>
+      </c>
+      <c r="D116">
+        <v>0.8972880299251871</v>
+      </c>
+      <c r="E116">
+        <v>1.033383010432191</v>
+      </c>
+      <c r="F116">
         <v>1.212563634617232</v>
       </c>
-      <c r="C116">
-        <v>1.113809018910833</v>
-      </c>
-      <c r="D116">
-        <v>1.033383010432191</v>
-      </c>
-      <c r="E116">
-        <v>1.012484993997599</v>
-      </c>
-      <c r="F116">
-        <v>0.8972880299251871</v>
-      </c>
       <c r="G116">
-        <v>1.053905737576609</v>
+        <v>1.05390995295873</v>
       </c>
       <c r="H116">
         <v>1.060900471328436</v>
@@ -4332,22 +4341,22 @@
         <v>44372</v>
       </c>
       <c r="B117">
+        <v>1.131908687253101</v>
+      </c>
+      <c r="C117">
+        <v>1.027015541525012</v>
+      </c>
+      <c r="D117">
+        <v>0.8997817955112221</v>
+      </c>
+      <c r="E117">
+        <v>1.056482861400894</v>
+      </c>
+      <c r="F117">
         <v>1.235616175199308</v>
       </c>
-      <c r="C117">
-        <v>1.131908687253101</v>
-      </c>
-      <c r="D117">
-        <v>1.056482861400894</v>
-      </c>
-      <c r="E117">
-        <v>1.027010804321729</v>
-      </c>
-      <c r="F117">
-        <v>0.8997817955112221</v>
-      </c>
       <c r="G117">
-        <v>1.070160064737251</v>
+        <v>1.070161012177908</v>
       </c>
       <c r="H117">
         <v>1.070094595507224</v>
@@ -4361,28 +4370,289 @@
         <v>44375</v>
       </c>
       <c r="B118">
-        <v>1.235616175199308</v>
+        <v>1.146698010360243</v>
       </c>
       <c r="C118">
-        <v>1.146698047603815</v>
+        <v>1.037578921806702</v>
       </c>
       <c r="D118">
-        <v>1.056482861400894</v>
+        <v>0.9050031172069826</v>
       </c>
       <c r="E118">
-        <v>1.027010804321729</v>
+        <v>1.067287630402384</v>
       </c>
       <c r="F118">
-        <v>0.8997817955112221</v>
+        <v>1.267217366247239</v>
       </c>
       <c r="G118">
-        <v>1.073117936807394</v>
+        <v>1.08475700920471</v>
       </c>
       <c r="H118">
-        <v>1.072467131869875</v>
+        <v>1.072467728686956</v>
       </c>
       <c r="I118">
-        <v>1.007765908249205</v>
+        <v>1.007765831492778</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="2">
+        <v>44376</v>
+      </c>
+      <c r="B119">
+        <v>1.160105385900947</v>
+      </c>
+      <c r="C119">
+        <v>1.029292132102962</v>
+      </c>
+      <c r="D119">
+        <v>0.8849750623441397</v>
+      </c>
+      <c r="E119">
+        <v>1.04903129657228</v>
+      </c>
+      <c r="F119">
+        <v>1.270194986072424</v>
+      </c>
+      <c r="G119">
+        <v>1.07871977259855</v>
+      </c>
+      <c r="H119">
+        <v>1.062557424011836</v>
+      </c>
+      <c r="I119">
+        <v>0.9960182603539622</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B120">
+        <v>1.183642777137457</v>
+      </c>
+      <c r="C120">
+        <v>1.029170713938805</v>
+      </c>
+      <c r="D120">
+        <v>0.8979114713216958</v>
+      </c>
+      <c r="E120">
+        <v>1.060134128166915</v>
+      </c>
+      <c r="F120">
+        <v>1.303813274421285</v>
+      </c>
+      <c r="G120">
+        <v>1.094934472997232</v>
+      </c>
+      <c r="H120">
+        <v>1.069273186736212</v>
+      </c>
+      <c r="I120">
+        <v>1.002446611107806</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" s="2">
+        <v>44378</v>
+      </c>
+      <c r="B121">
+        <v>1.161165300715214</v>
+      </c>
+      <c r="C121">
+        <v>1.046108547838757</v>
+      </c>
+      <c r="D121">
+        <v>0.859569825436409</v>
+      </c>
+      <c r="E121">
+        <v>1.068479880774963</v>
+      </c>
+      <c r="F121">
+        <v>1.286667947363366</v>
+      </c>
+      <c r="G121">
+        <v>1.084398300425742</v>
+      </c>
+      <c r="H121">
+        <v>1.054900889100393</v>
+      </c>
+      <c r="I121">
+        <v>1.003525038905914</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" s="2">
+        <v>44379</v>
+      </c>
+      <c r="B122">
+        <v>1.138213688792936</v>
+      </c>
+      <c r="C122">
+        <v>1.00734579893152</v>
+      </c>
+      <c r="D122">
+        <v>0.8307356608478804</v>
+      </c>
+      <c r="E122">
+        <v>1.026751117734724</v>
+      </c>
+      <c r="F122">
+        <v>1.282105465373163</v>
+      </c>
+      <c r="G122">
+        <v>1.057030346336045</v>
+      </c>
+      <c r="H122">
+        <v>1.045694200351494</v>
+      </c>
+      <c r="I122">
+        <v>0.975021539772302</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" s="2">
+        <v>44382</v>
+      </c>
+      <c r="B123">
+        <v>1.144097055854669</v>
+      </c>
+      <c r="C123">
+        <v>0.9986947547353083</v>
+      </c>
+      <c r="D123">
+        <v>0.8346321695760599</v>
+      </c>
+      <c r="E123">
+        <v>1.03301043219076</v>
+      </c>
+      <c r="F123">
+        <v>1.317500720391893</v>
+      </c>
+      <c r="G123">
+        <v>1.065587026549738</v>
+      </c>
+      <c r="H123">
+        <v>1.054011945765033</v>
+      </c>
+      <c r="I123">
+        <v>0.9759176710564946</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" s="2">
+        <v>44383</v>
+      </c>
+      <c r="B124">
+        <v>1.134395912304448</v>
+      </c>
+      <c r="C124">
+        <v>0.9815140845070423</v>
+      </c>
+      <c r="D124">
+        <v>0.8402431421446385</v>
+      </c>
+      <c r="E124">
+        <v>1.027719821162444</v>
+      </c>
+      <c r="F124">
+        <v>1.319085582556911</v>
+      </c>
+      <c r="G124">
+        <v>1.060591708535097</v>
+      </c>
+      <c r="H124">
+        <v>1.053774789504186</v>
+      </c>
+      <c r="I124">
+        <v>0.9754014840855144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" s="2">
+        <v>44384</v>
+      </c>
+      <c r="B125">
+        <v>1.18707277355475</v>
+      </c>
+      <c r="C125">
+        <v>0.9924417192812044</v>
+      </c>
+      <c r="D125">
+        <v>0.8637001246882794</v>
+      </c>
+      <c r="E125">
+        <v>1.04344262295082</v>
+      </c>
+      <c r="F125">
+        <v>1.392997790798194</v>
+      </c>
+      <c r="G125">
+        <v>1.095931006254649</v>
+      </c>
+      <c r="H125">
+        <v>1.062354820318795</v>
+      </c>
+      <c r="I125">
+        <v>0.9864141124366519</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" s="2">
+        <v>44385</v>
+      </c>
+      <c r="B126">
+        <v>1.203272436244684</v>
+      </c>
+      <c r="C126">
+        <v>0.9783875667799903</v>
+      </c>
+      <c r="D126">
+        <v>0.8980673316708231</v>
+      </c>
+      <c r="E126">
+        <v>1.020417287630402</v>
+      </c>
+      <c r="F126">
+        <v>1.415810200749208</v>
+      </c>
+      <c r="G126">
+        <v>1.103190964615022</v>
+      </c>
+      <c r="H126">
+        <v>1.059923576002299</v>
+      </c>
+      <c r="I126">
+        <v>0.9763916419926737</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" s="2">
+        <v>44386</v>
+      </c>
+      <c r="B127">
+        <v>1.206036207232322</v>
+      </c>
+      <c r="C127">
+        <v>0.9724077221952404</v>
+      </c>
+      <c r="D127">
+        <v>0.8907418952618454</v>
+      </c>
+      <c r="E127">
+        <v>0.9888226527570789</v>
+      </c>
+      <c r="F127">
+        <v>1.439919316107963</v>
+      </c>
+      <c r="G127">
+        <v>1.09958555871089</v>
+      </c>
+      <c r="H127">
+        <v>1.068701498796157</v>
+      </c>
+      <c r="I127">
+        <v>0.9727802521064841</v>
       </c>
     </row>
   </sheetData>
@@ -4494,18 +4764,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
@@ -4537,19 +4807,16 @@
       <c r="L1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>49</v>
@@ -4570,27 +4837,24 @@
         <v>0.2</v>
       </c>
       <c r="J2">
-        <v>133.48</v>
+        <v>4.518700122833252</v>
       </c>
       <c r="K2">
-        <v>9.199999999999999</v>
+        <v>39.26179885864258</v>
       </c>
       <c r="L2">
-        <v>4.83</v>
-      </c>
-      <c r="M2">
-        <v>38.77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>21.5733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>50</v>
@@ -4611,24 +4875,21 @@
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>36.67</v>
+        <v>6.533899784088135</v>
       </c>
       <c r="K3">
-        <v>4.21</v>
+        <v>42.1609001159668</v>
       </c>
       <c r="L3">
-        <v>14.81</v>
-      </c>
-      <c r="M3">
-        <v>21.57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>3.5233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>46</v>
@@ -4652,24 +4913,21 @@
         <v>0.2</v>
       </c>
       <c r="J4">
-        <v>55.64</v>
+        <v>3.740200042724609</v>
       </c>
       <c r="K4">
-        <v>12.65</v>
+        <v>66.89820098876953</v>
       </c>
       <c r="L4">
-        <v>5.22</v>
-      </c>
-      <c r="M4">
-        <v>11.33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>27.0909</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
         <v>47</v>
@@ -4693,24 +4951,21 @@
         <v>0.2</v>
       </c>
       <c r="J5">
-        <v>44.93</v>
+        <v>12.167799949646</v>
       </c>
       <c r="K5">
-        <v>6.93</v>
+        <v>51.78060150146484</v>
       </c>
       <c r="L5">
-        <v>-3.04</v>
-      </c>
-      <c r="M5">
-        <v>3.52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -4734,16 +4989,13 @@
         <v>0.2</v>
       </c>
       <c r="J6">
-        <v>67.98</v>
+        <v>10.4798002243042</v>
       </c>
       <c r="K6">
-        <v>3.81</v>
+        <v>152.8901977539062</v>
       </c>
       <c r="L6">
-        <v>1.45</v>
-      </c>
-      <c r="M6">
-        <v>27.09</v>
+        <v>38.7678</v>
       </c>
     </row>
   </sheetData>
@@ -4787,13 +5039,13 @@
         <v>99</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4807,13 +5059,13 @@
         <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4827,13 +5079,13 @@
         <v>101</v>
       </c>
       <c r="D4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4847,13 +5099,13 @@
         <v>102</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4867,13 +5119,13 @@
         <v>103</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4887,13 +5139,13 @@
         <v>104</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4904,16 +5156,16 @@
         <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4924,16 +5176,16 @@
         <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F9" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4944,16 +5196,16 @@
         <v>87</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4964,16 +5216,16 @@
         <v>88</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4984,16 +5236,16 @@
         <v>89</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5004,16 +5256,16 @@
         <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F13" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5024,16 +5276,16 @@
         <v>91</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5044,16 +5296,16 @@
         <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E15" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5064,16 +5316,16 @@
         <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F16" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5084,16 +5336,16 @@
         <v>94</v>
       </c>
       <c r="C17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5104,16 +5356,16 @@
         <v>95</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5124,16 +5376,16 @@
         <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -5144,16 +5396,16 @@
         <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E20" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5164,16 +5416,16 @@
         <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E21" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -5183,7 +5435,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5191,98 +5443,109 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C8" t="s">
-        <v>190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
         <v>4</v>
       </c>
-      <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="s">
-        <v>191</v>
+      <c r="B10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>
